--- a/kits.xlsx
+++ b/kits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\SISTEMAS MCPF-BA\MEUS PROJETOS\NOVO ORÇAMENTO RAPIDO\orca-rapido-zap-main\orca-rapido-zap-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E0CA66D-128F-4CB0-B35E-37291DF05057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB9D36B-4209-44DD-9DEB-A01F7CBE61F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6410,22 +6410,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I949"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A934" workbookViewId="0">
+      <selection activeCell="C934" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="3" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>471.8091</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>419.87509999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>3580.1718999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>1242.96126</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>717.12950999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>286.76600000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>44.708399999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>553.09709999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>553.09709999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>40.643999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>437.03590000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>437.03590000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>29.63625</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>302.7978</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>302.7978</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>110.0775</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>1139.3868</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>1139.3868</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>42.337499999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>413.214</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>426.762</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>371.66680000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>371.66680000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>612.59539999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>612.59539999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>5054.1039799999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>847.5403</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>509.40480000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>509.40480000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>65.0304</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>815.81540000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>815.81540000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>523.17859999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -7755,13 +7755,16 @@
         <v>523.17859999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>58</v>
       </c>
       <c r="B51" t="s">
         <v>1006</v>
       </c>
+      <c r="C51">
+        <v>42</v>
+      </c>
       <c r="D51">
         <v>750.2</v>
       </c>
@@ -7778,7 +7781,7 @@
         <v>846.97580000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -7807,7 +7810,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -7836,7 +7839,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -7862,7 +7865,7 @@
         <v>1587.9385</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -7888,7 +7891,7 @@
         <v>63.506250000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -7914,7 +7917,7 @@
         <v>520.80769999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -7940,7 +7943,7 @@
         <v>520.80769999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -7969,7 +7972,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -7998,7 +8001,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -8027,7 +8030,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -8050,7 +8053,7 @@
         <v>3052.7031000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -8073,7 +8076,7 @@
         <v>1672.6134999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -8096,7 +8099,7 @@
         <v>55.03875</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -8119,7 +8122,7 @@
         <v>365.79599999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -8142,7 +8145,7 @@
         <v>247.92840000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -8171,7 +8174,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -8197,7 +8200,7 @@
         <v>391.19850000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -8223,7 +8226,7 @@
         <v>12.70125</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -8249,7 +8252,7 @@
         <v>61.756300000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -8275,7 +8278,7 @@
         <v>61.756300000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -8301,7 +8304,7 @@
         <v>232.68690000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -8327,7 +8330,7 @@
         <v>928.4896</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -8356,7 +8359,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -8382,7 +8385,7 @@
         <v>340.95800000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -8408,7 +8411,7 @@
         <v>21.168749999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -8434,7 +8437,7 @@
         <v>241.04150000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -8460,7 +8463,7 @@
         <v>241.04150000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -8486,7 +8489,7 @@
         <v>1039.4703</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -8515,7 +8518,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -8541,7 +8544,7 @@
         <v>1037.94615</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -8567,7 +8570,7 @@
         <v>606.27300000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -8593,7 +8596,7 @@
         <v>28.450800000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -8619,7 +8622,7 @@
         <v>241.04150000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>91</v>
       </c>
@@ -8645,7 +8648,7 @@
         <v>241.04150000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>92</v>
       </c>
@@ -8653,7 +8656,7 @@
         <v>1040</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>37.04</v>
       </c>
       <c r="D85">
         <v>3916.81</v>
@@ -8674,7 +8677,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -8700,7 +8703,7 @@
         <v>425.40719999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -8726,7 +8729,7 @@
         <v>728.20500000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -8752,7 +8755,7 @@
         <v>36.579599999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>96</v>
       </c>
@@ -8778,7 +8781,7 @@
         <v>215.30029999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>97</v>
       </c>
@@ -8804,7 +8807,7 @@
         <v>215.30029999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -8833,7 +8836,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>99</v>
       </c>
@@ -8859,7 +8862,7 @@
         <v>595.6604000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>100</v>
       </c>
@@ -8885,7 +8888,7 @@
         <v>354.50599999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -8911,7 +8914,7 @@
         <v>20.321999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>102</v>
       </c>
@@ -8937,7 +8940,7 @@
         <v>200.96199999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>103</v>
       </c>
@@ -8963,7 +8966,7 @@
         <v>200.96199999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -8989,7 +8992,7 @@
         <v>2023.3260600000001</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>105</v>
       </c>
@@ -9015,7 +9018,7 @@
         <v>631.61905000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>106</v>
       </c>
@@ -9041,7 +9044,7 @@
         <v>354.50599999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>107</v>
       </c>
@@ -9067,7 +9070,7 @@
         <v>20.321999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>108</v>
       </c>
@@ -9093,7 +9096,7 @@
         <v>204.0103</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>109</v>
       </c>
@@ -9119,7 +9122,7 @@
         <v>217.5583</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>110</v>
       </c>
@@ -9142,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>111</v>
       </c>
@@ -9168,7 +9171,7 @@
         <v>8658.2784199999987</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>112</v>
       </c>
@@ -9194,7 +9197,7 @@
         <v>2194.7759999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>113</v>
       </c>
@@ -9220,7 +9223,7 @@
         <v>84.674999999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>114</v>
       </c>
@@ -9246,7 +9249,7 @@
         <v>560.88720000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>115</v>
       </c>
@@ -9272,7 +9275,7 @@
         <v>560.88720000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>116</v>
       </c>
@@ -9298,7 +9301,7 @@
         <v>12818.80148</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>117</v>
       </c>
@@ -9324,7 +9327,7 @@
         <v>3071.4445000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>118</v>
       </c>
@@ -9350,7 +9353,7 @@
         <v>110.0775</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>119</v>
       </c>
@@ -9376,7 +9379,7 @@
         <v>536.72659999999996</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>120</v>
       </c>
@@ -9402,7 +9405,7 @@
         <v>536.72659999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>121</v>
       </c>
@@ -9410,7 +9413,7 @@
         <v>1069</v>
       </c>
       <c r="C114">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D114">
         <v>2332.9899999999998</v>
@@ -9428,7 +9431,7 @@
         <v>2633.94571</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>122</v>
       </c>
@@ -9454,7 +9457,7 @@
         <v>16.2576</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>123</v>
       </c>
@@ -9480,7 +9483,7 @@
         <v>244.0898</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>124</v>
       </c>
@@ -9506,7 +9509,7 @@
         <v>244.0898</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>125</v>
       </c>
@@ -9532,7 +9535,7 @@
         <v>3428.72784</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>126</v>
       </c>
@@ -9558,7 +9561,7 @@
         <v>526.33979999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>127</v>
       </c>
@@ -9584,7 +9587,7 @@
         <v>28.450800000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>128</v>
       </c>
@@ -9610,7 +9613,7 @@
         <v>327.41000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>129</v>
       </c>
@@ -9636,7 +9639,7 @@
         <v>327.41000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>130</v>
       </c>
@@ -9665,7 +9668,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>131</v>
       </c>
@@ -9691,7 +9694,7 @@
         <v>134.57679999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>132</v>
       </c>
@@ -9717,7 +9720,7 @@
         <v>773.92949999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>133</v>
       </c>
@@ -9743,7 +9746,7 @@
         <v>28.450800000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>134</v>
       </c>
@@ -9769,7 +9772,7 @@
         <v>278.29849999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>135</v>
       </c>
@@ -9795,7 +9798,7 @@
         <v>278.29849999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>136</v>
       </c>
@@ -9821,7 +9824,7 @@
         <v>1673.7425000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>137</v>
       </c>
@@ -9847,7 +9850,7 @@
         <v>1200.52215</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>138</v>
       </c>
@@ -9873,7 +9876,7 @@
         <v>434.21339999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>139</v>
       </c>
@@ -9899,7 +9902,7 @@
         <v>434.21339999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>140</v>
       </c>
@@ -9925,7 +9928,7 @@
         <v>161.16475</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>141</v>
       </c>
@@ -9954,7 +9957,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>142</v>
       </c>
@@ -9980,7 +9983,7 @@
         <v>59.272500000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>143</v>
       </c>
@@ -10009,7 +10012,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>144</v>
       </c>
@@ -10035,7 +10038,7 @@
         <v>2779.0335</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>145</v>
       </c>
@@ -10061,7 +10064,7 @@
         <v>93.142499999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>146</v>
       </c>
@@ -10087,7 +10090,7 @@
         <v>867.97519999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>147</v>
       </c>
@@ -10113,7 +10116,7 @@
         <v>867.97519999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>148</v>
       </c>
@@ -10139,7 +10142,7 @@
         <v>449.85005000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>149</v>
       </c>
@@ -10165,7 +10168,7 @@
         <v>3161.7645000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>150</v>
       </c>
@@ -10194,7 +10197,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>151</v>
       </c>
@@ -10220,7 +10223,7 @@
         <v>76.20750000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>152</v>
       </c>
@@ -10246,7 +10249,7 @@
         <v>1917.2678000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>153</v>
       </c>
@@ -10272,7 +10275,7 @@
         <v>1917.2678000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>154</v>
       </c>
@@ -10298,7 +10301,7 @@
         <v>7461.0529500000002</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>155</v>
       </c>
@@ -10324,7 +10327,7 @@
         <v>76.20750000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>156</v>
       </c>
@@ -10350,7 +10353,7 @@
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>157</v>
       </c>
@@ -10376,7 +10379,7 @@
         <v>649.28790000000004</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>158</v>
       </c>
@@ -10402,7 +10405,7 @@
         <v>649.28790000000004</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>159</v>
       </c>
@@ -10431,7 +10434,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>160</v>
       </c>
@@ -10457,7 +10460,7 @@
         <v>2725.4059999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>161</v>
       </c>
@@ -10483,7 +10486,7 @@
         <v>93.142499999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>162</v>
       </c>
@@ -10509,7 +10512,7 @@
         <v>564.27420000000006</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>163</v>
       </c>
@@ -10535,7 +10538,7 @@
         <v>564.27420000000006</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>164</v>
       </c>
@@ -10561,7 +10564,7 @@
         <v>8682.7325600000004</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>165</v>
       </c>
@@ -10587,7 +10590,7 @@
         <v>2018.652</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>166</v>
       </c>
@@ -10613,7 +10616,7 @@
         <v>71.973749999999995</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>167</v>
       </c>
@@ -10639,7 +10642,7 @@
         <v>257.97649999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>168</v>
       </c>
@@ -10665,7 +10668,7 @@
         <v>257.97649999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>169</v>
       </c>
@@ -10688,7 +10691,7 @@
         <v>812.54129999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>170</v>
       </c>
@@ -10717,7 +10720,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>171</v>
       </c>
@@ -10743,7 +10746,7 @@
         <v>4647.5285000000003</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>172</v>
       </c>
@@ -10769,7 +10772,7 @@
         <v>190.51875000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>173</v>
       </c>
@@ -10795,7 +10798,7 @@
         <v>1255.8996</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>174</v>
       </c>
@@ -10821,7 +10824,7 @@
         <v>1255.8996</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>175</v>
       </c>
@@ -10850,7 +10853,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>176</v>
       </c>
@@ -10876,7 +10879,7 @@
         <v>2725.4059999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>177</v>
       </c>
@@ -10902,7 +10905,7 @@
         <v>105.84375</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>178</v>
       </c>
@@ -10928,7 +10931,7 @@
         <v>798.42880000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>179</v>
       </c>
@@ -10954,7 +10957,7 @@
         <v>798.42880000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>180</v>
       </c>
@@ -10983,7 +10986,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>181</v>
       </c>
@@ -11009,7 +11012,7 @@
         <v>2983.3825000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>182</v>
       </c>
@@ -11035,7 +11038,7 @@
         <v>101.61</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>183</v>
       </c>
@@ -11061,7 +11064,7 @@
         <v>536.83949999999993</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>184</v>
       </c>
@@ -11087,7 +11090,7 @@
         <v>536.83949999999993</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>185</v>
       </c>
@@ -11116,7 +11119,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>186</v>
       </c>
@@ -11142,7 +11145,7 @@
         <v>417.05259999999993</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>187</v>
       </c>
@@ -11168,7 +11171,7 @@
         <v>8.1288</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>188</v>
       </c>
@@ -11194,7 +11197,7 @@
         <v>449.00330000000002</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>189</v>
       </c>
@@ -11220,7 +11223,7 @@
         <v>449.00330000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>190</v>
       </c>
@@ -11249,7 +11252,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>191</v>
       </c>
@@ -11275,7 +11278,7 @@
         <v>223.76779999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>192</v>
       </c>
@@ -11301,7 +11304,7 @@
         <v>8.1288</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>193</v>
       </c>
@@ -11327,7 +11330,7 @@
         <v>340.05479999999989</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>194</v>
       </c>
@@ -11353,13 +11356,16 @@
         <v>340.05479999999989</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>195</v>
       </c>
       <c r="B188" t="s">
         <v>1143</v>
       </c>
+      <c r="C188">
+        <v>146.30000000000001</v>
+      </c>
       <c r="D188">
         <v>1045.5</v>
       </c>
@@ -11376,7 +11382,7 @@
         <v>1180.3695</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>196</v>
       </c>
@@ -11402,7 +11408,7 @@
         <v>14119.66915</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>197</v>
       </c>
@@ -11428,7 +11434,7 @@
         <v>173.58375000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>198</v>
       </c>
@@ -11454,7 +11460,7 @@
         <v>1180.3695</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>199</v>
       </c>
@@ -11480,7 +11486,7 @@
         <v>9141.5468700000001</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>200</v>
       </c>
@@ -11506,7 +11512,7 @@
         <v>65.0304</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>201</v>
       </c>
@@ -11532,7 +11538,7 @@
         <v>466.6157</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>202</v>
       </c>
@@ -11558,7 +11564,7 @@
         <v>466.6157</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>203</v>
       </c>
@@ -11584,7 +11590,7 @@
         <v>15897.742539999999</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>204</v>
       </c>
@@ -11610,7 +11616,7 @@
         <v>84.674999999999997</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>205</v>
       </c>
@@ -11636,7 +11642,7 @@
         <v>623.54669999999987</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>206</v>
       </c>
@@ -11662,7 +11668,7 @@
         <v>616.77269999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>207</v>
       </c>
@@ -11688,7 +11694,7 @@
         <v>30698.60513</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>208</v>
       </c>
@@ -11714,7 +11720,7 @@
         <v>211.34880000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>209</v>
       </c>
@@ -11740,7 +11746,7 @@
         <v>1499.0862</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>210</v>
       </c>
@@ -11766,7 +11772,7 @@
         <v>1499.0862</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>211</v>
       </c>
@@ -11792,7 +11798,7 @@
         <v>19332.36376</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>212</v>
       </c>
@@ -11818,7 +11824,7 @@
         <v>127.0125</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>213</v>
       </c>
@@ -11844,7 +11850,7 @@
         <v>977.9398000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>214</v>
       </c>
@@ -11870,7 +11876,7 @@
         <v>977.9398000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>215</v>
       </c>
@@ -11896,7 +11902,7 @@
         <v>14005.459510000001</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>216</v>
       </c>
@@ -11922,7 +11928,7 @@
         <v>101.61</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>217</v>
       </c>
@@ -11948,7 +11954,7 @@
         <v>81.852499999999992</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>218</v>
       </c>
@@ -11974,7 +11980,7 @@
         <v>814.68640000000005</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>219</v>
       </c>
@@ -12000,7 +12006,7 @@
         <v>814.68640000000005</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>220</v>
       </c>
@@ -12026,7 +12032,7 @@
         <v>8215.7894500000002</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>221</v>
       </c>
@@ -12052,7 +12058,7 @@
         <v>59.272500000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>222</v>
       </c>
@@ -12078,7 +12084,7 @@
         <v>570.37080000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>223</v>
       </c>
@@ -12104,7 +12110,7 @@
         <v>570.37080000000003</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>224</v>
       </c>
@@ -12133,7 +12139,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>225</v>
       </c>
@@ -12159,7 +12165,7 @@
         <v>71.973749999999995</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>226</v>
       </c>
@@ -12185,7 +12191,7 @@
         <v>807.12209999999993</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>227</v>
       </c>
@@ -12211,7 +12217,7 @@
         <v>807.12209999999993</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>228</v>
       </c>
@@ -12240,7 +12246,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>229</v>
       </c>
@@ -12266,7 +12272,7 @@
         <v>127.0125</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>230</v>
       </c>
@@ -12292,7 +12298,7 @@
         <v>425.97170000000011</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>231</v>
       </c>
@@ -12318,7 +12324,7 @@
         <v>425.97170000000011</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>232</v>
       </c>
@@ -12344,7 +12350,7 @@
         <v>8969.3405000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>233</v>
       </c>
@@ -12370,7 +12376,7 @@
         <v>56.901600000000002</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>234</v>
       </c>
@@ -12396,7 +12402,7 @@
         <v>510.8725</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>235</v>
       </c>
@@ -12422,7 +12428,7 @@
         <v>510.8725</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>236</v>
       </c>
@@ -12448,7 +12454,7 @@
         <v>16369.50648</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>237</v>
       </c>
@@ -12474,7 +12480,7 @@
         <v>4710.2444500000001</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>238</v>
       </c>
@@ -12500,7 +12506,7 @@
         <v>110.0775</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>239</v>
       </c>
@@ -12526,7 +12532,7 @@
         <v>1358.7515000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>240</v>
       </c>
@@ -12552,7 +12558,7 @@
         <v>1358.7515000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>241</v>
       </c>
@@ -12578,7 +12584,7 @@
         <v>2234.00875</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>242</v>
       </c>
@@ -12607,7 +12613,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>243</v>
       </c>
@@ -12633,7 +12639,7 @@
         <v>207.45375000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>244</v>
       </c>
@@ -12659,7 +12665,7 @@
         <v>1886.8977</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>245</v>
       </c>
@@ -12685,7 +12691,7 @@
         <v>1886.8977</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>246</v>
       </c>
@@ -12711,7 +12717,7 @@
         <v>105.67440000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>247</v>
       </c>
@@ -12737,7 +12743,7 @@
         <v>15869.50625</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>248</v>
       </c>
@@ -12763,7 +12769,7 @@
         <v>675.02909999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>249</v>
       </c>
@@ -12789,7 +12795,7 @@
         <v>675.02909999999997</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>250</v>
       </c>
@@ -12818,7 +12824,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>251</v>
       </c>
@@ -12844,7 +12850,7 @@
         <v>28.450800000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>252</v>
       </c>
@@ -12870,7 +12876,7 @@
         <v>240.477</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>253</v>
       </c>
@@ -12896,7 +12902,7 @@
         <v>240.477</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>254</v>
       </c>
@@ -12925,7 +12931,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>255</v>
       </c>
@@ -12951,7 +12957,7 @@
         <v>93.142499999999998</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>256</v>
       </c>
@@ -12977,7 +12983,7 @@
         <v>1156.4347</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>257</v>
       </c>
@@ -13003,7 +13009,7 @@
         <v>1156.4347</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>258</v>
       </c>
@@ -13032,7 +13038,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>259</v>
       </c>
@@ -13058,7 +13064,7 @@
         <v>614.85339999999997</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>260</v>
       </c>
@@ -13084,7 +13090,7 @@
         <v>3005.3980000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>261</v>
       </c>
@@ -13110,7 +13116,7 @@
         <v>131.24625</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>262</v>
       </c>
@@ -13136,7 +13142,7 @@
         <v>1267.9799</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>263</v>
       </c>
@@ -13162,7 +13168,7 @@
         <v>1267.9799</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>264</v>
       </c>
@@ -13191,7 +13197,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>265</v>
       </c>
@@ -13217,7 +13223,7 @@
         <v>146.3184</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>266</v>
       </c>
@@ -13243,7 +13249,7 @@
         <v>101.61</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>267</v>
       </c>
@@ -13269,7 +13275,7 @@
         <v>1206.1107</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>268</v>
       </c>
@@ -13295,7 +13301,7 @@
         <v>1206.1107</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>269</v>
       </c>
@@ -13324,7 +13330,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>270</v>
       </c>
@@ -13350,7 +13356,7 @@
         <v>739.89014999999995</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>271</v>
       </c>
@@ -13376,7 +13382,7 @@
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>272</v>
       </c>
@@ -13402,7 +13408,7 @@
         <v>333.84530000000001</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>273</v>
       </c>
@@ -13428,7 +13434,7 @@
         <v>333.84530000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>274</v>
       </c>
@@ -13457,7 +13463,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>275</v>
       </c>
@@ -13483,7 +13489,7 @@
         <v>80.441249999999997</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>276</v>
       </c>
@@ -13509,7 +13515,7 @@
         <v>586.17679999999996</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>277</v>
       </c>
@@ -13535,7 +13541,7 @@
         <v>586.17679999999996</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>278</v>
       </c>
@@ -13561,7 +13567,7 @@
         <v>224.4452</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>279</v>
       </c>
@@ -13587,7 +13593,7 @@
         <v>20587.269840000001</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>280</v>
       </c>
@@ -13613,7 +13619,7 @@
         <v>122.77875</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>281</v>
       </c>
@@ -13639,7 +13645,7 @@
         <v>1142.6609000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>282</v>
       </c>
@@ -13665,7 +13671,7 @@
         <v>1142.6609000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>283</v>
       </c>
@@ -13694,7 +13700,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>284</v>
       </c>
@@ -13720,7 +13726,7 @@
         <v>88.908749999999998</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>285</v>
       </c>
@@ -13746,7 +13752,7 @@
         <v>64.917500000000004</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>286</v>
       </c>
@@ -13772,7 +13778,7 @@
         <v>594.87009999999987</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>287</v>
       </c>
@@ -13798,7 +13804,7 @@
         <v>594.87009999999987</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>288</v>
       </c>
@@ -13824,7 +13830,7 @@
         <v>1146.7253000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>289</v>
       </c>
@@ -13850,7 +13856,7 @@
         <v>265.20209999999997</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>290</v>
       </c>
@@ -13876,7 +13882,7 @@
         <v>1142.548</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>291</v>
       </c>
@@ -13905,7 +13911,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>292</v>
       </c>
@@ -13931,7 +13937,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>293</v>
       </c>
@@ -13957,7 +13963,7 @@
         <v>313.07170000000002</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>294</v>
       </c>
@@ -13983,7 +13989,7 @@
         <v>313.07170000000002</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>295</v>
       </c>
@@ -14012,7 +14018,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>296</v>
       </c>
@@ -14038,7 +14044,7 @@
         <v>920.07855000000006</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>297</v>
       </c>
@@ -14064,7 +14070,7 @@
         <v>219.19534999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>298</v>
       </c>
@@ -14090,7 +14096,7 @@
         <v>1414.6369999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>299</v>
       </c>
@@ -14116,7 +14122,7 @@
         <v>42.337499999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>300</v>
       </c>
@@ -14142,7 +14148,7 @@
         <v>264.97629999999998</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>301</v>
       </c>
@@ -14168,7 +14174,7 @@
         <v>264.97629999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>302</v>
       </c>
@@ -14176,7 +14182,7 @@
         <v>1250</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>90.95</v>
       </c>
       <c r="D295">
         <v>4225.53</v>
@@ -14197,7 +14203,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>303</v>
       </c>
@@ -14223,7 +14229,7 @@
         <v>2351.9892500000001</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>304</v>
       </c>
@@ -14249,7 +14255,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>305</v>
       </c>
@@ -14275,7 +14281,7 @@
         <v>351.23190000000011</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>306</v>
       </c>
@@ -14301,7 +14307,7 @@
         <v>345.47399999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>307</v>
       </c>
@@ -14330,7 +14336,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>308</v>
       </c>
@@ -14356,7 +14362,7 @@
         <v>933.96525000000008</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>309</v>
       </c>
@@ -14382,7 +14388,7 @@
         <v>265.20209999999997</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>310</v>
       </c>
@@ -14408,7 +14414,7 @@
         <v>1448.5070000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>311</v>
       </c>
@@ -14434,7 +14440,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>312</v>
       </c>
@@ -14460,7 +14466,7 @@
         <v>361.28</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>313</v>
       </c>
@@ -14486,7 +14492,7 @@
         <v>361.28</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>314</v>
       </c>
@@ -14515,7 +14521,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>315</v>
       </c>
@@ -14541,7 +14547,7 @@
         <v>1081.2433000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>316</v>
       </c>
@@ -14567,7 +14573,7 @@
         <v>282.81450000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>317</v>
       </c>
@@ -14593,7 +14599,7 @@
         <v>1346.8969999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>318</v>
       </c>
@@ -14619,7 +14625,7 @@
         <v>42.337499999999999</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>319</v>
       </c>
@@ -14645,7 +14651,7 @@
         <v>340.8451</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>320</v>
       </c>
@@ -14671,7 +14677,7 @@
         <v>340.8451</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>321</v>
       </c>
@@ -14697,7 +14703,7 @@
         <v>3314.8456099999999</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>322</v>
       </c>
@@ -14723,7 +14729,7 @@
         <v>840.08889999999997</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>323</v>
       </c>
@@ -14749,7 +14755,7 @@
         <v>232.2353</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>324</v>
       </c>
@@ -14775,7 +14781,7 @@
         <v>1095.1300000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>325</v>
       </c>
@@ -14801,7 +14807,7 @@
         <v>33.869999999999997</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>326</v>
       </c>
@@ -14827,7 +14833,7 @@
         <v>282.13709999999998</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>327</v>
       </c>
@@ -14853,7 +14859,7 @@
         <v>282.13709999999998</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>328</v>
       </c>
@@ -14882,7 +14888,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>329</v>
       </c>
@@ -14908,7 +14914,7 @@
         <v>1114.7181499999999</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>330</v>
       </c>
@@ -14934,7 +14940,7 @@
         <v>134.06874999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>331</v>
       </c>
@@ -14960,7 +14966,7 @@
         <v>1414.6369999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>332</v>
       </c>
@@ -14986,7 +14992,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>333</v>
       </c>
@@ -15012,7 +15018,7 @@
         <v>261.7022</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>334</v>
       </c>
@@ -15038,7 +15044,7 @@
         <v>261.7022</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>335</v>
       </c>
@@ -15064,7 +15070,7 @@
         <v>1108.84735</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>336</v>
       </c>
@@ -15090,7 +15096,7 @@
         <v>389.78724999999997</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>337</v>
       </c>
@@ -15116,7 +15122,7 @@
         <v>1632.5340000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>338</v>
       </c>
@@ -15145,7 +15151,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>339</v>
       </c>
@@ -15171,7 +15177,7 @@
         <v>55.03875</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>340</v>
       </c>
@@ -15197,7 +15203,7 @@
         <v>457.69659999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>341</v>
       </c>
@@ -15223,7 +15229,7 @@
         <v>457.69659999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>342</v>
       </c>
@@ -15252,7 +15258,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>343</v>
       </c>
@@ -15278,7 +15284,7 @@
         <v>1584.5515</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>344</v>
       </c>
@@ -15304,7 +15310,7 @@
         <v>525.49304999999993</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>345</v>
       </c>
@@ -15330,7 +15336,7 @@
         <v>2067.1990000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>346</v>
       </c>
@@ -15356,7 +15362,7 @@
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>347</v>
       </c>
@@ -15382,7 +15388,7 @@
         <v>543.61349999999993</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>348</v>
       </c>
@@ -15408,7 +15414,7 @@
         <v>543.61349999999993</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>349</v>
       </c>
@@ -15437,7 +15443,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>350</v>
       </c>
@@ -15463,7 +15469,7 @@
         <v>1270.40725</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>351</v>
       </c>
@@ -15489,7 +15495,7 @@
         <v>2326.8690000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>352</v>
       </c>
@@ -15515,7 +15521,7 @@
         <v>80.441249999999997</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>353</v>
       </c>
@@ -15541,7 +15547,7 @@
         <v>55.321000000000012</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>354</v>
       </c>
@@ -15567,7 +15573,7 @@
         <v>571.49979999999994</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>355</v>
       </c>
@@ -15593,7 +15599,7 @@
         <v>571.49979999999994</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>356</v>
       </c>
@@ -15619,7 +15625,7 @@
         <v>4086.8332300000002</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>357</v>
       </c>
@@ -15645,7 +15651,7 @@
         <v>646.97344999999996</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>358</v>
       </c>
@@ -15671,7 +15677,7 @@
         <v>152.35855000000001</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>359</v>
       </c>
@@ -15697,7 +15703,7 @@
         <v>1354.8</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>360</v>
       </c>
@@ -15720,7 +15726,7 @@
         <v>202.99420000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>361</v>
       </c>
@@ -15746,7 +15752,7 @@
         <v>42.337499999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>362</v>
       </c>
@@ -15772,7 +15778,7 @@
         <v>202.99420000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>363</v>
       </c>
@@ -15780,7 +15786,7 @@
         <v>1311</v>
       </c>
       <c r="C356">
-        <v>2.1</v>
+        <v>31.21</v>
       </c>
       <c r="D356">
         <v>4680.58</v>
@@ -15801,7 +15807,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>364</v>
       </c>
@@ -15827,7 +15833,7 @@
         <v>232.9127</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>365</v>
       </c>
@@ -15853,7 +15859,7 @@
         <v>1402.2180000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>366</v>
       </c>
@@ -15879,7 +15885,7 @@
         <v>42.337499999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>367</v>
       </c>
@@ -15905,7 +15911,7 @@
         <v>326.84550000000002</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>368</v>
       </c>
@@ -15931,7 +15937,7 @@
         <v>326.84550000000002</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>369</v>
       </c>
@@ -15957,7 +15963,7 @@
         <v>6255.2696599999999</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>370</v>
       </c>
@@ -15983,7 +15989,7 @@
         <v>1756.8933500000001</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>371</v>
       </c>
@@ -16009,7 +16015,7 @@
         <v>512.17084999999997</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>372</v>
       </c>
@@ -16035,7 +16041,7 @@
         <v>1755.595</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>373</v>
       </c>
@@ -16061,7 +16067,7 @@
         <v>59.272500000000001</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>374</v>
       </c>
@@ -16087,7 +16093,7 @@
         <v>629.75619999999992</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>375</v>
       </c>
@@ -16113,7 +16119,7 @@
         <v>629.75619999999992</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>376</v>
       </c>
@@ -16139,7 +16145,7 @@
         <v>4794.8855800000001</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>377</v>
       </c>
@@ -16165,7 +16171,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>378</v>
       </c>
@@ -16191,7 +16197,7 @@
         <v>385.21480000000003</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>379</v>
       </c>
@@ -16217,7 +16223,7 @@
         <v>385.21480000000003</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>380</v>
       </c>
@@ -16243,7 +16249,7 @@
         <v>10749.58157</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>381</v>
       </c>
@@ -16269,7 +16275,7 @@
         <v>63.506250000000001</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>382</v>
       </c>
@@ -16295,7 +16301,7 @@
         <v>494.55844999999999</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>383</v>
       </c>
@@ -16321,7 +16327,7 @@
         <v>807.79950000000008</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>384</v>
       </c>
@@ -16347,7 +16353,7 @@
         <v>7889.3165200000003</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>385</v>
       </c>
@@ -16373,7 +16379,7 @@
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>386</v>
       </c>
@@ -16399,7 +16405,7 @@
         <v>757.22030000000007</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>387</v>
       </c>
@@ -16425,7 +16431,7 @@
         <v>757.22030000000007</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>388</v>
       </c>
@@ -16451,7 +16457,7 @@
         <v>10233.131810000001</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>389</v>
       </c>
@@ -16477,7 +16483,7 @@
         <v>265.87950000000001</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>390</v>
       </c>
@@ -16503,7 +16509,7 @@
         <v>76.20750000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>391</v>
       </c>
@@ -16529,7 +16535,7 @@
         <v>702.01219999999989</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>392</v>
       </c>
@@ -16555,7 +16561,7 @@
         <v>702.01219999999989</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>393</v>
       </c>
@@ -16581,7 +16587,7 @@
         <v>3377.2567300000001</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>394</v>
       </c>
@@ -16607,7 +16613,7 @@
         <v>152.1892</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>395</v>
       </c>
@@ -16633,7 +16639,7 @@
         <v>898.68400000000008</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>396</v>
       </c>
@@ -16659,7 +16665,7 @@
         <v>32.5152</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>397</v>
       </c>
@@ -16685,7 +16691,7 @@
         <v>309.91050000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>398</v>
       </c>
@@ -16711,7 +16717,7 @@
         <v>309.91050000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>399</v>
       </c>
@@ -16719,7 +16725,7 @@
         <v>1347</v>
       </c>
       <c r="C392">
-        <v>2</v>
+        <v>52.5</v>
       </c>
       <c r="D392">
         <v>4260.71</v>
@@ -16740,7 +16746,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>400</v>
       </c>
@@ -16766,7 +16772,7 @@
         <v>763.48625000000004</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>401</v>
       </c>
@@ -16792,7 +16798,7 @@
         <v>425.01204999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>402</v>
       </c>
@@ -16818,7 +16824,7 @@
         <v>1401.0889999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>403</v>
       </c>
@@ -16844,7 +16850,7 @@
         <v>44.708399999999997</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>404</v>
       </c>
@@ -16870,7 +16876,7 @@
         <v>457.58370000000002</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>405</v>
       </c>
@@ -16896,7 +16902,7 @@
         <v>457.58370000000002</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>406</v>
       </c>
@@ -16925,7 +16931,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>407</v>
       </c>
@@ -16951,7 +16957,7 @@
         <v>1887.9702500000001</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>408</v>
       </c>
@@ -16977,7 +16983,7 @@
         <v>372.17484999999999</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>409</v>
       </c>
@@ -17003,7 +17009,7 @@
         <v>2055.9090000000001</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>410</v>
       </c>
@@ -17029,7 +17035,7 @@
         <v>80.441249999999997</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>411</v>
       </c>
@@ -17055,7 +17061,7 @@
         <v>632.91739999999993</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>412</v>
       </c>
@@ -17081,7 +17087,7 @@
         <v>632.91739999999993</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>413</v>
       </c>
@@ -17110,7 +17116,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>414</v>
       </c>
@@ -17136,7 +17142,7 @@
         <v>1284.6891000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>415</v>
       </c>
@@ -17162,7 +17168,7 @@
         <v>232.2353</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>416</v>
       </c>
@@ -17188,7 +17194,7 @@
         <v>1801.884</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>417</v>
       </c>
@@ -17214,7 +17220,7 @@
         <v>59.272500000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>418</v>
       </c>
@@ -17240,7 +17246,7 @@
         <v>443.47120000000012</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>419</v>
       </c>
@@ -17266,7 +17272,7 @@
         <v>443.47120000000012</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>420</v>
       </c>
@@ -17292,7 +17298,7 @@
         <v>1817.8593499999999</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>421</v>
       </c>
@@ -17318,7 +17324,7 @@
         <v>335.65170000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>422</v>
       </c>
@@ -17344,7 +17350,7 @@
         <v>1537.6980000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>423</v>
       </c>
@@ -17373,7 +17379,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>424</v>
       </c>
@@ -17399,7 +17405,7 @@
         <v>55.03875</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>425</v>
       </c>
@@ -17425,7 +17431,7 @@
         <v>519.67869999999994</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>426</v>
       </c>
@@ -17451,7 +17457,7 @@
         <v>519.67869999999994</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>427</v>
       </c>
@@ -17480,7 +17486,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>428</v>
       </c>
@@ -17506,7 +17512,7 @@
         <v>1994.0398</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>429</v>
       </c>
@@ -17532,7 +17538,7 @@
         <v>2692.665</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>430</v>
       </c>
@@ -17558,7 +17564,7 @@
         <v>84.674999999999997</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>431</v>
       </c>
@@ -17584,7 +17590,7 @@
         <v>275.476</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>432</v>
       </c>
@@ -17610,7 +17616,7 @@
         <v>275.476</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>433</v>
       </c>
@@ -17639,7 +17645,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>434</v>
       </c>
@@ -17665,7 +17671,7 @@
         <v>2908.1911</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>435</v>
       </c>
@@ -17691,7 +17697,7 @@
         <v>539.88779999999997</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>436</v>
       </c>
@@ -17717,7 +17723,7 @@
         <v>1865.1079999999999</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>437</v>
       </c>
@@ -17743,7 +17749,7 @@
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>438</v>
       </c>
@@ -17769,7 +17775,7 @@
         <v>789.17099999999994</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>439</v>
       </c>
@@ -17795,7 +17801,7 @@
         <v>789.17099999999994</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>440</v>
       </c>
@@ -17821,7 +17827,7 @@
         <v>1506.4811500000001</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>441</v>
       </c>
@@ -17847,7 +17853,7 @@
         <v>164.38239999999999</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>442</v>
       </c>
@@ -17873,7 +17879,7 @@
         <v>1517.376</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>443</v>
       </c>
@@ -17902,7 +17908,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>444</v>
       </c>
@@ -17928,7 +17934,7 @@
         <v>55.03875</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>445</v>
       </c>
@@ -17954,7 +17960,7 @@
         <v>557.50020000000006</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>446</v>
       </c>
@@ -17980,7 +17986,7 @@
         <v>557.50020000000006</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>447</v>
       </c>
@@ -18006,7 +18012,7 @@
         <v>6283.7994900000012</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>448</v>
       </c>
@@ -18032,7 +18038,7 @@
         <v>1642.41275</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>449</v>
       </c>
@@ -18058,7 +18064,7 @@
         <v>350.32870000000003</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>450</v>
       </c>
@@ -18084,7 +18090,7 @@
         <v>1687.855</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>451</v>
       </c>
@@ -18110,7 +18116,7 @@
         <v>63.506250000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>452</v>
       </c>
@@ -18136,7 +18142,7 @@
         <v>622.86930000000007</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>453</v>
       </c>
@@ -18162,7 +18168,7 @@
         <v>622.86930000000007</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>454</v>
       </c>
@@ -18188,7 +18194,7 @@
         <v>483.72005000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>455</v>
       </c>
@@ -18214,7 +18220,7 @@
         <v>2203.808</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>456</v>
       </c>
@@ -18243,7 +18249,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>457</v>
       </c>
@@ -18269,7 +18275,7 @@
         <v>76.20750000000001</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>458</v>
       </c>
@@ -18295,7 +18301,7 @@
         <v>557.50020000000006</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>459</v>
       </c>
@@ -18321,7 +18327,7 @@
         <v>557.50020000000006</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>460</v>
       </c>
@@ -18350,7 +18356,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>461</v>
       </c>
@@ -18376,7 +18382,7 @@
         <v>1683.1132</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>462</v>
       </c>
@@ -18402,7 +18408,7 @@
         <v>444.93889999999999</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>463</v>
       </c>
@@ -18428,7 +18434,7 @@
         <v>2312.192</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>464</v>
       </c>
@@ -18454,7 +18460,7 @@
         <v>73.159199999999998</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>465</v>
       </c>
@@ -18480,7 +18486,7 @@
         <v>612.48249999999996</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>466</v>
       </c>
@@ -18506,7 +18512,7 @@
         <v>612.48249999999996</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>467</v>
       </c>
@@ -18532,7 +18538,7 @@
         <v>2288.1442999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>468</v>
       </c>
@@ -18558,7 +18564,7 @@
         <v>650.07819999999992</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>469</v>
       </c>
@@ -18584,7 +18590,7 @@
         <v>2176.712</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>470</v>
       </c>
@@ -18592,7 +18598,7 @@
         <v>1418</v>
       </c>
       <c r="C463">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="D463">
         <v>6805.38</v>
@@ -18613,7 +18619,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>471</v>
       </c>
@@ -18639,7 +18645,7 @@
         <v>76.20750000000001</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>472</v>
       </c>
@@ -18665,7 +18671,7 @@
         <v>825.97640000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>473</v>
       </c>
@@ -18691,7 +18697,7 @@
         <v>825.97640000000001</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>474</v>
       </c>
@@ -18717,7 +18723,7 @@
         <v>9708.0339100000019</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>475</v>
       </c>
@@ -18743,7 +18749,7 @@
         <v>677.85159999999996</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>476</v>
       </c>
@@ -18769,7 +18775,7 @@
         <v>2041.232</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>477</v>
       </c>
@@ -18795,7 +18801,7 @@
         <v>73.159199999999998</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>478</v>
       </c>
@@ -18821,7 +18827,7 @@
         <v>898.34530000000007</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>479</v>
       </c>
@@ -18847,7 +18853,7 @@
         <v>898.34530000000007</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>480</v>
       </c>
@@ -18876,7 +18882,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>481</v>
       </c>
@@ -18902,7 +18908,7 @@
         <v>301.10430000000002</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>482</v>
       </c>
@@ -18928,7 +18934,7 @@
         <v>63.506250000000001</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>483</v>
       </c>
@@ -18954,7 +18960,7 @@
         <v>584.70910000000003</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>484</v>
       </c>
@@ -18980,7 +18986,7 @@
         <v>584.70910000000003</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>485</v>
       </c>
@@ -19009,7 +19015,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>486</v>
       </c>
@@ -19035,7 +19041,7 @@
         <v>1577.83395</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>487</v>
       </c>
@@ -19061,7 +19067,7 @@
         <v>425.01204999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>488</v>
       </c>
@@ -19087,7 +19093,7 @@
         <v>2190.2600000000002</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>489</v>
       </c>
@@ -19113,7 +19119,7 @@
         <v>71.973749999999995</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>490</v>
       </c>
@@ -19139,7 +19145,7 @@
         <v>615.98239999999998</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>491</v>
       </c>
@@ -19165,7 +19171,7 @@
         <v>615.98239999999998</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>492</v>
       </c>
@@ -19191,7 +19197,7 @@
         <v>1695.9273499999999</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>493</v>
       </c>
@@ -19217,7 +19223,7 @@
         <v>1166.20055</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>494</v>
       </c>
@@ -19243,7 +19249,7 @@
         <v>2156.39</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>495</v>
       </c>
@@ -19272,7 +19278,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>496</v>
       </c>
@@ -19298,7 +19304,7 @@
         <v>71.973749999999995</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>497</v>
       </c>
@@ -19324,7 +19330,7 @@
         <v>564.27420000000006</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>498</v>
       </c>
@@ -19350,7 +19356,7 @@
         <v>564.27420000000006</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>499</v>
       </c>
@@ -19379,7 +19385,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>500</v>
       </c>
@@ -19405,7 +19411,7 @@
         <v>7738.3917999999994</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>501</v>
       </c>
@@ -19431,7 +19437,7 @@
         <v>939.10219999999993</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>502</v>
       </c>
@@ -19457,7 +19463,7 @@
         <v>7527.0429999999997</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>503</v>
       </c>
@@ -19483,7 +19489,7 @@
         <v>262.49250000000001</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>504</v>
       </c>
@@ -19509,7 +19515,7 @@
         <v>2141.1484999999998</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>505</v>
       </c>
@@ -19535,7 +19541,7 @@
         <v>2141.1484999999998</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>506</v>
       </c>
@@ -19561,7 +19567,7 @@
         <v>9950.36247</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>507</v>
       </c>
@@ -19587,7 +19593,7 @@
         <v>110.0775</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>508</v>
       </c>
@@ -19613,7 +19619,7 @@
         <v>557.83890000000008</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>509</v>
       </c>
@@ -19639,7 +19645,7 @@
         <v>557.83890000000008</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>510</v>
       </c>
@@ -19665,7 +19671,7 @@
         <v>2096.4965499999998</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>511</v>
       </c>
@@ -19691,7 +19697,7 @@
         <v>1842.528</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>512</v>
       </c>
@@ -19720,7 +19726,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>513</v>
       </c>
@@ -19746,7 +19752,7 @@
         <v>56.901600000000002</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>514</v>
       </c>
@@ -19772,7 +19778,7 @@
         <v>358.11880000000002</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>515</v>
       </c>
@@ -19798,7 +19804,7 @@
         <v>358.11880000000002</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>516</v>
       </c>
@@ -19824,7 +19830,7 @@
         <v>1337.3005000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>517</v>
       </c>
@@ -19850,7 +19856,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>518</v>
       </c>
@@ -19876,7 +19882,7 @@
         <v>296.13670000000002</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>519</v>
       </c>
@@ -19902,7 +19908,7 @@
         <v>296.13670000000002</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>520</v>
       </c>
@@ -19931,7 +19937,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>521</v>
       </c>
@@ -19957,7 +19963,7 @@
         <v>3065.4043499999998</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>522</v>
       </c>
@@ -19983,7 +19989,7 @@
         <v>350.66739999999999</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>523</v>
       </c>
@@ -20009,7 +20015,7 @@
         <v>1993.8140000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>524</v>
       </c>
@@ -20035,7 +20041,7 @@
         <v>48.772799999999997</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>525</v>
       </c>
@@ -20061,7 +20067,7 @@
         <v>433.87470000000002</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>526</v>
       </c>
@@ -20087,7 +20093,7 @@
         <v>433.87470000000002</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>527</v>
       </c>
@@ -20113,7 +20119,7 @@
         <v>71.973749999999995</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>528</v>
       </c>
@@ -20139,7 +20145,7 @@
         <v>591.41536000000008</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>529</v>
       </c>
@@ -20165,7 +20171,7 @@
         <v>92.80380000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>530</v>
       </c>
@@ -20194,7 +20200,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>531</v>
       </c>
@@ -20220,7 +20226,7 @@
         <v>4171.0905000000002</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>532</v>
       </c>
@@ -20246,7 +20252,7 @@
         <v>76.20750000000001</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>533</v>
       </c>
@@ -20272,7 +20278,7 @@
         <v>540.22649999999999</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>534</v>
       </c>
@@ -20298,7 +20304,7 @@
         <v>540.22649999999999</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>535</v>
       </c>
@@ -20306,7 +20312,7 @@
         <v>1483</v>
       </c>
       <c r="C528">
-        <v>1.1000000000000001</v>
+        <v>22.53</v>
       </c>
       <c r="D528">
         <v>2069.62</v>
@@ -20324,7 +20330,7 @@
         <v>2336.6009800000002</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>536</v>
       </c>
@@ -20350,7 +20356,7 @@
         <v>467.68824999999998</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>537</v>
       </c>
@@ -20376,7 +20382,7 @@
         <v>33.869999999999997</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>538</v>
       </c>
@@ -20402,7 +20408,7 @@
         <v>216.768</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>539</v>
       </c>
@@ -20428,7 +20434,7 @@
         <v>216.768</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>540</v>
       </c>
@@ -20454,7 +20460,7 @@
         <v>495.06650000000002</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>541</v>
       </c>
@@ -20462,7 +20468,7 @@
         <v>1489</v>
       </c>
       <c r="C534">
-        <v>1</v>
+        <v>26.75</v>
       </c>
       <c r="D534">
         <v>2764.48</v>
@@ -20483,7 +20489,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>542</v>
       </c>
@@ -20509,7 +20515,7 @@
         <v>409.0367</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>543</v>
       </c>
@@ -20535,7 +20541,7 @@
         <v>282.81450000000001</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>544</v>
       </c>
@@ -20561,7 +20567,7 @@
         <v>1127.3064999999999</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>545</v>
       </c>
@@ -20587,7 +20593,7 @@
         <v>33.869999999999997</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>546</v>
       </c>
@@ -20613,7 +20619,7 @@
         <v>275.13729999999998</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>547</v>
       </c>
@@ -20639,7 +20645,7 @@
         <v>275.13729999999998</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>548</v>
       </c>
@@ -20665,7 +20671,7 @@
         <v>13899.457700000001</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>549</v>
       </c>
@@ -20691,7 +20697,7 @@
         <v>6600.134</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>550</v>
       </c>
@@ -20717,7 +20723,7 @@
         <v>215.92124999999999</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>551</v>
       </c>
@@ -20743,7 +20749,7 @@
         <v>777.65519999999992</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>552</v>
       </c>
@@ -20769,7 +20775,7 @@
         <v>777.65519999999992</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>553</v>
       </c>
@@ -20795,7 +20801,7 @@
         <v>24910.786629999999</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>554</v>
       </c>
@@ -20821,7 +20827,7 @@
         <v>1622.1472000000001</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>555</v>
       </c>
@@ -20847,7 +20853,7 @@
         <v>4493.42</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>556</v>
       </c>
@@ -20873,7 +20879,7 @@
         <v>156.64875000000001</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>557</v>
       </c>
@@ -20899,7 +20905,7 @@
         <v>1545.2623000000001</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>558</v>
       </c>
@@ -20925,7 +20931,7 @@
         <v>1545.2623000000001</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>559</v>
       </c>
@@ -20951,7 +20957,7 @@
         <v>6352.2846300000001</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>560</v>
       </c>
@@ -20980,7 +20986,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>561</v>
       </c>
@@ -21006,7 +21012,7 @@
         <v>134.57679999999999</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>562</v>
       </c>
@@ -21032,7 +21038,7 @@
         <v>592.72500000000002</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>563</v>
       </c>
@@ -21058,7 +21064,7 @@
         <v>32.5152</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>564</v>
       </c>
@@ -21084,7 +21090,7 @@
         <v>257.63780000000003</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>565</v>
       </c>
@@ -21110,7 +21116,7 @@
         <v>257.63780000000003</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>566</v>
       </c>
@@ -21136,7 +21142,7 @@
         <v>408.92380000000003</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>567</v>
       </c>
@@ -21162,7 +21168,7 @@
         <v>12639.80982</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>568</v>
       </c>
@@ -21188,7 +21194,7 @@
         <v>1495.3605</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>569</v>
       </c>
@@ -21214,7 +21220,7 @@
         <v>59.272500000000001</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>570</v>
       </c>
@@ -21240,7 +21246,7 @@
         <v>408.92380000000003</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>571</v>
       </c>
@@ -21266,7 +21272,7 @@
         <v>1898.7521999999999</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>572</v>
       </c>
@@ -21292,7 +21298,7 @@
         <v>63.506250000000001</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>573</v>
       </c>
@@ -21318,7 +21324,7 @@
         <v>444.03570000000002</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>574</v>
       </c>
@@ -21347,7 +21353,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>575</v>
       </c>
@@ -21373,7 +21379,7 @@
         <v>404.12554999999998</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>576</v>
       </c>
@@ -21399,7 +21405,7 @@
         <v>130.51240000000001</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>577</v>
       </c>
@@ -21425,7 +21431,7 @@
         <v>462.89</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>578</v>
       </c>
@@ -21451,7 +21457,7 @@
         <v>21.168749999999999</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>579</v>
       </c>
@@ -21477,7 +21483,7 @@
         <v>240.81569999999999</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>580</v>
       </c>
@@ -21503,7 +21509,7 @@
         <v>240.81569999999999</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>581</v>
       </c>
@@ -21529,7 +21535,7 @@
         <v>532.04124999999999</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>582</v>
       </c>
@@ -21555,7 +21561,7 @@
         <v>188.20429999999999</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>583</v>
       </c>
@@ -21581,7 +21587,7 @@
         <v>1116.5809999999999</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>584</v>
       </c>
@@ -21610,7 +21616,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>585</v>
       </c>
@@ -21636,7 +21642,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>586</v>
       </c>
@@ -21662,7 +21668,7 @@
         <v>275.13729999999998</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>587</v>
       </c>
@@ -21688,7 +21694,7 @@
         <v>275.13729999999998</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>588</v>
       </c>
@@ -21714,7 +21720,7 @@
         <v>576.74964999999997</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>589</v>
       </c>
@@ -21740,7 +21746,7 @@
         <v>572.40300000000002</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>590</v>
       </c>
@@ -21769,7 +21775,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>591</v>
       </c>
@@ -21795,7 +21801,7 @@
         <v>29.63625</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>592</v>
       </c>
@@ -21821,7 +21827,7 @@
         <v>289.024</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>593</v>
       </c>
@@ -21847,7 +21853,7 @@
         <v>289.024</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>594</v>
       </c>
@@ -21873,7 +21879,7 @@
         <v>7211.6455599999999</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>595</v>
       </c>
@@ -21899,7 +21905,7 @@
         <v>2599.1273500000002</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>596</v>
       </c>
@@ -21925,7 +21931,7 @@
         <v>354.50599999999997</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>597</v>
       </c>
@@ -21951,7 +21957,7 @@
         <v>63.506250000000001</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>598</v>
       </c>
@@ -21977,7 +21983,7 @@
         <v>319.95859999999999</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>599</v>
       </c>
@@ -22003,7 +22009,7 @@
         <v>319.95859999999999</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>600</v>
       </c>
@@ -22029,7 +22035,7 @@
         <v>71.973749999999995</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>601</v>
       </c>
@@ -22055,7 +22061,7 @@
         <v>588.54769999999996</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>602</v>
       </c>
@@ -22081,7 +22087,7 @@
         <v>588.54769999999996</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>603</v>
       </c>
@@ -22110,7 +22116,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>604</v>
       </c>
@@ -22136,7 +22142,7 @@
         <v>387.13409999999999</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>605</v>
       </c>
@@ -22162,7 +22168,7 @@
         <v>318.7167</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>606</v>
       </c>
@@ -22188,7 +22194,7 @@
         <v>1313.027</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>607</v>
       </c>
@@ -22214,7 +22220,7 @@
         <v>42.337499999999999</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>608</v>
       </c>
@@ -22240,7 +22246,7 @@
         <v>364.66699999999997</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>609</v>
       </c>
@@ -22266,7 +22272,7 @@
         <v>364.66699999999997</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>610</v>
       </c>
@@ -22295,7 +22301,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>611</v>
       </c>
@@ -22321,7 +22327,7 @@
         <v>175.84174999999999</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>612</v>
       </c>
@@ -22347,7 +22353,7 @@
         <v>247.251</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>613</v>
       </c>
@@ -22373,7 +22379,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>614</v>
       </c>
@@ -22399,7 +22405,7 @@
         <v>268.36329999999998</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>615</v>
       </c>
@@ -22425,7 +22431,7 @@
         <v>268.36329999999998</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>616</v>
       </c>
@@ -22454,7 +22460,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>617</v>
       </c>
@@ -22480,7 +22486,7 @@
         <v>680.78700000000003</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>618</v>
       </c>
@@ -22506,7 +22512,7 @@
         <v>36.579599999999999</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>619</v>
       </c>
@@ -22532,7 +22538,7 @@
         <v>502.29209999999989</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>620</v>
       </c>
@@ -22558,7 +22564,7 @@
         <v>502.29209999999989</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>621</v>
       </c>
@@ -22584,7 +22590,7 @@
         <v>399.4402</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>622</v>
       </c>
@@ -22610,7 +22616,7 @@
         <v>554.33899999999994</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>623</v>
       </c>
@@ -22639,7 +22645,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>624</v>
       </c>
@@ -22665,7 +22671,7 @@
         <v>60.966000000000001</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>625</v>
       </c>
@@ -22691,7 +22697,7 @@
         <v>746.83349999999996</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>626</v>
       </c>
@@ -22717,7 +22723,7 @@
         <v>746.83349999999996</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>627</v>
       </c>
@@ -22743,7 +22749,7 @@
         <v>7773.0069399999993</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>628</v>
       </c>
@@ -22769,7 +22775,7 @@
         <v>56.901600000000002</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>629</v>
       </c>
@@ -22795,7 +22801,7 @@
         <v>536.50080000000003</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>630</v>
       </c>
@@ -22821,7 +22827,7 @@
         <v>536.50080000000003</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>631</v>
       </c>
@@ -22829,7 +22835,7 @@
         <v>1579</v>
       </c>
       <c r="C624">
-        <v>1</v>
+        <v>26.05</v>
       </c>
       <c r="D624">
         <v>3203.64</v>
@@ -22850,7 +22856,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>632</v>
       </c>
@@ -22876,7 +22882,7 @@
         <v>1081.5820000000001</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>633</v>
       </c>
@@ -22902,7 +22908,7 @@
         <v>36.579599999999999</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>634</v>
       </c>
@@ -22928,7 +22934,7 @@
         <v>275.13729999999998</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>635</v>
       </c>
@@ -22954,7 +22960,7 @@
         <v>275.13729999999998</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>636</v>
       </c>
@@ -22980,7 +22986,7 @@
         <v>265.20209999999997</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>637</v>
       </c>
@@ -23006,7 +23012,7 @@
         <v>29.63625</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>638</v>
       </c>
@@ -23032,7 +23038,7 @@
         <v>598.37</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>639</v>
       </c>
@@ -23061,7 +23067,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>640</v>
       </c>
@@ -23087,7 +23093,7 @@
         <v>412.98820000000001</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>641</v>
       </c>
@@ -23113,7 +23119,7 @@
         <v>412.98820000000001</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>642</v>
       </c>
@@ -23142,7 +23148,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>643</v>
       </c>
@@ -23168,7 +23174,7 @@
         <v>580.58825000000002</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>644</v>
       </c>
@@ -23194,7 +23200,7 @@
         <v>188.20429999999999</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>645</v>
       </c>
@@ -23220,7 +23226,7 @@
         <v>225.8</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>646</v>
       </c>
@@ -23246,7 +23252,7 @@
         <v>21.168749999999999</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>647</v>
       </c>
@@ -23272,7 +23278,7 @@
         <v>399.21440000000001</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>648</v>
       </c>
@@ -23298,7 +23304,7 @@
         <v>399.21440000000001</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>649</v>
       </c>
@@ -23324,7 +23330,7 @@
         <v>439.57614999999998</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>650</v>
       </c>
@@ -23350,7 +23356,7 @@
         <v>188.20429999999999</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>651</v>
       </c>
@@ -23376,7 +23382,7 @@
         <v>278.863</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>652</v>
       </c>
@@ -23405,7 +23411,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>653</v>
       </c>
@@ -23431,7 +23437,7 @@
         <v>20.321999999999999</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>654</v>
       </c>
@@ -23457,7 +23463,7 @@
         <v>333.73239999999998</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>655</v>
       </c>
@@ -23483,7 +23489,7 @@
         <v>333.73239999999998</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>656</v>
       </c>
@@ -23512,7 +23518,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>657</v>
       </c>
@@ -23538,7 +23544,7 @@
         <v>1468.6032</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>658</v>
       </c>
@@ -23564,7 +23570,7 @@
         <v>606.04719999999998</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>659</v>
       </c>
@@ -23590,7 +23596,7 @@
         <v>1027.3900000000001</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>660</v>
       </c>
@@ -23616,7 +23622,7 @@
         <v>33.869999999999997</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>661</v>
       </c>
@@ -23642,7 +23648,7 @@
         <v>550.38749999999993</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>662</v>
       </c>
@@ -23668,7 +23674,7 @@
         <v>550.38749999999993</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>663</v>
       </c>
@@ -23694,7 +23700,7 @@
         <v>4965.10491</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>664</v>
       </c>
@@ -23720,7 +23726,7 @@
         <v>925.78</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>665</v>
       </c>
@@ -23746,7 +23752,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>666</v>
       </c>
@@ -23772,7 +23778,7 @@
         <v>316.3458</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>667</v>
       </c>
@@ -23798,7 +23804,7 @@
         <v>316.3458</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>668</v>
       </c>
@@ -23824,7 +23830,7 @@
         <v>557.16150000000005</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>669</v>
       </c>
@@ -23850,7 +23856,7 @@
         <v>211.12299999999999</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>670</v>
       </c>
@@ -23879,7 +23885,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>671</v>
       </c>
@@ -23905,7 +23911,7 @@
         <v>25.4025</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>672</v>
       </c>
@@ -23931,7 +23937,7 @@
         <v>378.55369999999999</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>673</v>
       </c>
@@ -23957,7 +23963,7 @@
         <v>378.55369999999999</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>674</v>
       </c>
@@ -23986,7 +23992,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>675</v>
       </c>
@@ -24012,7 +24018,7 @@
         <v>12.70125</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>676</v>
       </c>
@@ -24038,7 +24044,7 @@
         <v>151.3989</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>677</v>
       </c>
@@ -24064,7 +24070,7 @@
         <v>151.3989</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>678</v>
       </c>
@@ -24090,7 +24096,7 @@
         <v>8500.6926000000003</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>679</v>
       </c>
@@ -24116,7 +24122,7 @@
         <v>4257.5154499999999</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>680</v>
       </c>
@@ -24142,7 +24148,7 @@
         <v>1517.376</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>681</v>
       </c>
@@ -24168,7 +24174,7 @@
         <v>84.674999999999997</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>682</v>
       </c>
@@ -24194,7 +24200,7 @@
         <v>1155.9830999999999</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>683</v>
       </c>
@@ -24220,7 +24226,7 @@
         <v>1155.9830999999999</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>684</v>
       </c>
@@ -24249,7 +24255,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>685</v>
       </c>
@@ -24275,7 +24281,7 @@
         <v>6167.7269999999999</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>686</v>
       </c>
@@ -24301,7 +24307,7 @@
         <v>279.42750000000001</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>687</v>
       </c>
@@ -24327,7 +24333,7 @@
         <v>3097.9760000000001</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>688</v>
       </c>
@@ -24353,7 +24359,7 @@
         <v>3097.9760000000001</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>689</v>
       </c>
@@ -24382,7 +24388,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>690</v>
       </c>
@@ -24408,7 +24414,7 @@
         <v>1400.91965</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>691</v>
       </c>
@@ -24434,7 +24440,7 @@
         <v>681.91599999999994</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>692</v>
       </c>
@@ -24460,7 +24466,7 @@
         <v>59.272500000000001</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>693</v>
       </c>
@@ -24486,7 +24492,7 @@
         <v>658.77150000000006</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>694</v>
       </c>
@@ -24512,7 +24518,7 @@
         <v>658.77150000000006</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>695</v>
       </c>
@@ -24538,7 +24544,7 @@
         <v>1507.6666</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>696</v>
       </c>
@@ -24567,7 +24573,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>697</v>
       </c>
@@ -24593,7 +24599,7 @@
         <v>88.908749999999998</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>698</v>
       </c>
@@ -24619,7 +24625,7 @@
         <v>970.60130000000004</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>699</v>
       </c>
@@ -24645,7 +24651,7 @@
         <v>970.60130000000004</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>700</v>
       </c>
@@ -24671,7 +24677,7 @@
         <v>1387.5409999999999</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>701</v>
       </c>
@@ -24697,7 +24703,7 @@
         <v>314.99099999999999</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>702</v>
       </c>
@@ -24723,7 +24729,7 @@
         <v>44.708399999999997</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>703</v>
       </c>
@@ -24749,7 +24755,7 @@
         <v>770.99409999999989</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>704</v>
       </c>
@@ -24775,7 +24781,7 @@
         <v>770.99409999999989</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>705</v>
       </c>
@@ -24783,7 +24789,7 @@
         <v>1653</v>
       </c>
       <c r="C698">
-        <v>2</v>
+        <v>70.02</v>
       </c>
       <c r="D698">
         <v>4621.1899999999996</v>
@@ -24804,7 +24810,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>706</v>
       </c>
@@ -24833,7 +24839,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>707</v>
       </c>
@@ -24859,7 +24865,7 @@
         <v>1449.636</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>708</v>
       </c>
@@ -24885,7 +24891,7 @@
         <v>73.159199999999998</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>709</v>
       </c>
@@ -24911,7 +24917,7 @@
         <v>733.17259999999999</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>710</v>
       </c>
@@ -24937,7 +24943,7 @@
         <v>733.17259999999999</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>711</v>
       </c>
@@ -24966,7 +24972,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>712</v>
       </c>
@@ -24992,7 +24998,7 @@
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>713</v>
       </c>
@@ -25018,7 +25024,7 @@
         <v>82.981499999999997</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>714</v>
       </c>
@@ -25044,7 +25050,7 @@
         <v>729.67269999999996</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>715</v>
       </c>
@@ -25070,7 +25076,7 @@
         <v>812.65419999999995</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>716</v>
       </c>
@@ -25096,7 +25102,7 @@
         <v>14157.739030000001</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>717</v>
       </c>
@@ -25122,7 +25128,7 @@
         <v>97.376249999999999</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>718</v>
       </c>
@@ -25148,7 +25154,7 @@
         <v>1032.4704999999999</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>719</v>
       </c>
@@ -25174,7 +25180,7 @@
         <v>1032.4704999999999</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>720</v>
       </c>
@@ -25200,7 +25206,7 @@
         <v>819.654</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>721</v>
       </c>
@@ -25226,7 +25232,7 @@
         <v>97.376249999999999</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>722</v>
       </c>
@@ -25252,7 +25258,7 @@
         <v>836.36319999999989</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>723</v>
       </c>
@@ -25278,7 +25284,7 @@
         <v>836.36319999999989</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>724</v>
       </c>
@@ -25304,7 +25310,7 @@
         <v>14399.299870000001</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>725</v>
       </c>
@@ -25330,7 +25336,7 @@
         <v>2829.2739999999999</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>726</v>
       </c>
@@ -25356,7 +25362,7 @@
         <v>105.84375</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>727</v>
       </c>
@@ -25382,7 +25388,7 @@
         <v>540.00070000000005</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>728</v>
       </c>
@@ -25408,7 +25414,7 @@
         <v>540.00070000000005</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>729</v>
       </c>
@@ -25437,7 +25443,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>730</v>
       </c>
@@ -25463,7 +25469,7 @@
         <v>21.168749999999999</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>731</v>
       </c>
@@ -25489,7 +25495,7 @@
         <v>1683.5873799999999</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>732</v>
       </c>
@@ -25515,7 +25521,7 @@
         <v>16.2576</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>733</v>
       </c>
@@ -25541,7 +25547,7 @@
         <v>100.8197</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>734</v>
       </c>
@@ -25567,7 +25573,7 @@
         <v>100.8197</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>735</v>
       </c>
@@ -25593,7 +25599,7 @@
         <v>105.84375</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>736</v>
       </c>
@@ -25619,7 +25625,7 @@
         <v>9767.0693200000005</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>737</v>
       </c>
@@ -25645,7 +25651,7 @@
         <v>1470.46605</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>738</v>
       </c>
@@ -25671,7 +25677,7 @@
         <v>388.82760000000002</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>739</v>
       </c>
@@ -25697,7 +25703,7 @@
         <v>388.82760000000002</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>740</v>
       </c>
@@ -25723,7 +25729,7 @@
         <v>6907.6961800000008</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>741</v>
       </c>
@@ -25749,7 +25755,7 @@
         <v>844.49199999999996</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>742</v>
       </c>
@@ -25775,7 +25781,7 @@
         <v>93.142499999999998</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>743</v>
       </c>
@@ -25801,7 +25807,7 @@
         <v>446.97109999999998</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>744</v>
       </c>
@@ -25827,7 +25833,7 @@
         <v>444.93889999999999</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>745</v>
       </c>
@@ -25853,7 +25859,7 @@
         <v>15762.21738</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>746</v>
       </c>
@@ -25879,7 +25885,7 @@
         <v>3970.1284999999998</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>747</v>
       </c>
@@ -25905,7 +25911,7 @@
         <v>139.71375</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>748</v>
       </c>
@@ -25931,7 +25937,7 @@
         <v>667.91640000000007</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>749</v>
       </c>
@@ -25957,7 +25963,7 @@
         <v>667.91640000000007</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>750</v>
       </c>
@@ -25983,7 +25989,7 @@
         <v>11351.32728</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>751</v>
       </c>
@@ -26009,7 +26015,7 @@
         <v>1485.1994999999999</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>752</v>
       </c>
@@ -26035,7 +26041,7 @@
         <v>2688.7134999999998</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>753</v>
       </c>
@@ -26061,7 +26067,7 @@
         <v>93.142499999999998</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>754</v>
       </c>
@@ -26087,7 +26093,7 @@
         <v>536.83949999999993</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>755</v>
       </c>
@@ -26113,7 +26119,7 @@
         <v>536.83949999999993</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>756</v>
       </c>
@@ -26139,7 +26145,7 @@
         <v>21865.82847</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>757</v>
       </c>
@@ -26165,7 +26171,7 @@
         <v>4125.366</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>758</v>
       </c>
@@ -26191,7 +26197,7 @@
         <v>127.0125</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>759</v>
       </c>
@@ -26217,7 +26223,7 @@
         <v>447.42270000000002</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>760</v>
       </c>
@@ -26243,7 +26249,7 @@
         <v>447.42270000000002</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>761</v>
       </c>
@@ -26269,7 +26275,7 @@
         <v>3139.1280499999998</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>762</v>
       </c>
@@ -26295,7 +26301,7 @@
         <v>767.8329</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>763</v>
       </c>
@@ -26321,7 +26327,7 @@
         <v>205.8167</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>764</v>
       </c>
@@ -26347,7 +26353,7 @@
         <v>826.428</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>765</v>
       </c>
@@ -26376,7 +26382,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>766</v>
       </c>
@@ -26402,7 +26408,7 @@
         <v>25.4025</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>767</v>
       </c>
@@ -26428,7 +26434,7 @@
         <v>247.92840000000001</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>768</v>
       </c>
@@ -26454,7 +26460,7 @@
         <v>247.92840000000001</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>769</v>
       </c>
@@ -26483,7 +26489,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>770</v>
       </c>
@@ -26509,7 +26515,7 @@
         <v>900.6033000000001</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>771</v>
       </c>
@@ -26535,7 +26541,7 @@
         <v>223.42910000000001</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>772</v>
       </c>
@@ -26561,7 +26567,7 @@
         <v>1252.0609999999999</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>773</v>
       </c>
@@ -26587,7 +26593,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>774</v>
       </c>
@@ -26613,7 +26619,7 @@
         <v>353.82859999999988</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>775</v>
       </c>
@@ -26639,7 +26645,7 @@
         <v>353.82859999999988</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>776</v>
       </c>
@@ -26665,7 +26671,7 @@
         <v>1325.84115</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>777</v>
       </c>
@@ -26691,7 +26697,7 @@
         <v>223.42910000000001</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>778</v>
       </c>
@@ -26717,7 +26723,7 @@
         <v>1775.3525</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>779</v>
       </c>
@@ -26746,7 +26752,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>780</v>
       </c>
@@ -26772,7 +26778,7 @@
         <v>55.03875</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>781</v>
       </c>
@@ -26798,7 +26804,7 @@
         <v>417.39129999999989</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>782</v>
       </c>
@@ -26824,7 +26830,7 @@
         <v>417.39129999999989</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>783</v>
       </c>
@@ -26850,7 +26856,7 @@
         <v>13531.27951</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>784</v>
       </c>
@@ -26876,7 +26882,7 @@
         <v>2374.2869999999998</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>785</v>
       </c>
@@ -26902,7 +26908,7 @@
         <v>97.376249999999999</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>786</v>
       </c>
@@ -26928,7 +26934,7 @@
         <v>718.8343000000001</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>787</v>
       </c>
@@ -26954,7 +26960,7 @@
         <v>718.8343000000001</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>788</v>
       </c>
@@ -26983,7 +26989,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>789</v>
       </c>
@@ -27009,7 +27015,7 @@
         <v>503.64690000000002</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>790</v>
       </c>
@@ -27035,7 +27041,7 @@
         <v>98.843950000000007</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>791</v>
       </c>
@@ -27061,7 +27067,7 @@
         <v>656.51350000000002</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>792</v>
       </c>
@@ -27087,7 +27093,7 @@
         <v>21.168749999999999</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>793</v>
       </c>
@@ -27113,7 +27119,7 @@
         <v>175.1079</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>794</v>
       </c>
@@ -27139,7 +27145,7 @@
         <v>175.44659999999999</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>795</v>
       </c>
@@ -27168,7 +27174,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>796</v>
       </c>
@@ -27194,7 +27200,7 @@
         <v>625.52244999999994</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>797</v>
       </c>
@@ -27220,7 +27226,7 @@
         <v>335.65170000000001</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>798</v>
       </c>
@@ -27246,7 +27252,7 @@
         <v>913.3610000000001</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>799</v>
       </c>
@@ -27272,7 +27278,7 @@
         <v>25.4025</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>800</v>
       </c>
@@ -27298,7 +27304,7 @@
         <v>196.22020000000001</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>801</v>
       </c>
@@ -27324,7 +27330,7 @@
         <v>196.22020000000001</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>802</v>
       </c>
@@ -27353,7 +27359,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>803</v>
       </c>
@@ -27379,7 +27385,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>804</v>
       </c>
@@ -27405,7 +27411,7 @@
         <v>117.07729999999999</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>805</v>
       </c>
@@ -27431,7 +27437,7 @@
         <v>117.07729999999999</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>806</v>
       </c>
@@ -27439,7 +27445,7 @@
         <v>1754</v>
       </c>
       <c r="C799">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D799">
         <v>2983.65</v>
@@ -27460,7 +27466,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>807</v>
       </c>
@@ -27486,7 +27492,7 @@
         <v>619.08714999999995</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>808</v>
       </c>
@@ -27512,7 +27518,7 @@
         <v>738.36599999999999</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>809</v>
       </c>
@@ -27538,7 +27544,7 @@
         <v>33.869999999999997</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>810</v>
       </c>
@@ -27564,7 +27570,7 @@
         <v>278.63720000000001</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>811</v>
       </c>
@@ -27590,7 +27596,7 @@
         <v>278.63720000000001</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>812</v>
       </c>
@@ -27619,7 +27625,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>813</v>
       </c>
@@ -27645,7 +27651,7 @@
         <v>55.095199999999998</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>814</v>
       </c>
@@ -27671,7 +27677,7 @@
         <v>531.75900000000001</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>815</v>
       </c>
@@ -27697,7 +27703,7 @@
         <v>16.934999999999999</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>816</v>
       </c>
@@ -27723,7 +27729,7 @@
         <v>55.095199999999998</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>817</v>
       </c>
@@ -27749,7 +27755,7 @@
         <v>608.53100000000006</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>818</v>
       </c>
@@ -27775,7 +27781,7 @@
         <v>3729.5385999999999</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>819</v>
       </c>
@@ -27801,7 +27807,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>820</v>
       </c>
@@ -27827,7 +27833,7 @@
         <v>206.26830000000001</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>821</v>
       </c>
@@ -27853,7 +27859,7 @@
         <v>206.26830000000001</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>822</v>
       </c>
@@ -27876,7 +27882,7 @@
         <v>628.55946000000006</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>823</v>
       </c>
@@ -27902,7 +27908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>824</v>
       </c>
@@ -27925,7 +27931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>825</v>
       </c>
@@ -27951,7 +27957,7 @@
         <v>4717.8087500000001</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>826</v>
       </c>
@@ -27977,7 +27983,7 @@
         <v>11259.25733</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>827</v>
       </c>
@@ -28003,7 +28009,7 @@
         <v>9620.9315599999991</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>828</v>
       </c>
@@ -28029,7 +28035,7 @@
         <v>14104.43894</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>829</v>
       </c>
@@ -28055,7 +28061,7 @@
         <v>5209.2060000000001</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>830</v>
       </c>
@@ -28063,7 +28069,7 @@
         <v>1778</v>
       </c>
       <c r="C823">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="D823">
         <v>6457.45</v>
@@ -28081,7 +28087,7 @@
         <v>7290.4610499999999</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>831</v>
       </c>
@@ -28107,7 +28113,7 @@
         <v>1833.0444</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>832</v>
       </c>
@@ -28133,7 +28139,7 @@
         <v>2735.0589500000001</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>833</v>
       </c>
@@ -28159,7 +28165,7 @@
         <v>0.5645</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>834</v>
       </c>
@@ -28182,7 +28188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>835</v>
       </c>
@@ -28205,7 +28211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>836</v>
       </c>
@@ -28228,7 +28234,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>837</v>
       </c>
@@ -28251,7 +28257,7 @@
         <v>28.225000000000001</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>838</v>
       </c>
@@ -28277,7 +28283,7 @@
         <v>319.71021999999999</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>839</v>
       </c>
@@ -28303,7 +28309,7 @@
         <v>112.87742</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>840</v>
       </c>
@@ -28329,7 +28335,7 @@
         <v>151.72631000000001</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>841</v>
       </c>
@@ -28337,7 +28343,7 @@
         <v>1789</v>
       </c>
       <c r="C834">
-        <v>2</v>
+        <v>52.5</v>
       </c>
       <c r="D834">
         <v>210.26</v>
@@ -28355,7 +28361,7 @@
         <v>237.38354000000001</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>842</v>
       </c>
@@ -28378,7 +28384,7 @@
         <v>152.69725</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>843</v>
       </c>
@@ -28404,7 +28410,7 @@
         <v>148.66672</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>844</v>
       </c>
@@ -28430,7 +28436,7 @@
         <v>174.81435999999999</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>845</v>
       </c>
@@ -28456,7 +28462,7 @@
         <v>0.7903</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>846</v>
       </c>
@@ -28482,7 +28488,7 @@
         <v>0.5645</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>847</v>
       </c>
@@ -28508,7 +28514,7 @@
         <v>0.95964999999999989</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>848</v>
       </c>
@@ -28534,7 +28540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>849</v>
       </c>
@@ -28557,7 +28563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>850</v>
       </c>
@@ -28580,7 +28586,7 @@
         <v>0.67739999999999989</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>851</v>
       </c>
@@ -28603,7 +28609,7 @@
         <v>1.129</v>
       </c>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>852</v>
       </c>
@@ -28626,7 +28632,7 @@
         <v>0.9032</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>853</v>
       </c>
@@ -28652,7 +28658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>854</v>
       </c>
@@ -28675,7 +28681,7 @@
         <v>5.645E-2</v>
       </c>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>855</v>
       </c>
@@ -28698,7 +28704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>856</v>
       </c>
@@ -28724,7 +28730,7 @@
         <v>27.547599999999999</v>
       </c>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>857</v>
       </c>
@@ -28750,7 +28756,7 @@
         <v>15.52375</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>858</v>
       </c>
@@ -28776,7 +28782,7 @@
         <v>25.1767</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>859</v>
       </c>
@@ -28802,7 +28808,7 @@
         <v>21.620349999999991</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>860</v>
       </c>
@@ -28828,7 +28834,7 @@
         <v>20.660699999999999</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>861</v>
       </c>
@@ -28854,7 +28860,7 @@
         <v>27.547599999999999</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>862</v>
       </c>
@@ -28880,7 +28886,7 @@
         <v>27.547599999999999</v>
       </c>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>863</v>
       </c>
@@ -28906,7 +28912,7 @@
         <v>55.26455</v>
       </c>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>864</v>
       </c>
@@ -28932,7 +28938,7 @@
         <v>55.26455</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>865</v>
       </c>
@@ -28955,7 +28961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>866</v>
       </c>
@@ -28981,7 +28987,7 @@
         <v>55.26455</v>
       </c>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>867</v>
       </c>
@@ -29007,7 +29013,7 @@
         <v>55.26455</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>868</v>
       </c>
@@ -29030,7 +29036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>869</v>
       </c>
@@ -29053,7 +29059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>870</v>
       </c>
@@ -29079,7 +29085,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>871</v>
       </c>
@@ -29105,7 +29111,7 @@
         <v>27.547599999999999</v>
       </c>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>872</v>
       </c>
@@ -29131,7 +29137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>873</v>
       </c>
@@ -29157,7 +29163,7 @@
         <v>50.805</v>
       </c>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>874</v>
       </c>
@@ -29183,7 +29189,7 @@
         <v>35.50705</v>
       </c>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>875</v>
       </c>
@@ -29209,7 +29215,7 @@
         <v>50.805</v>
       </c>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>876</v>
       </c>
@@ -29235,7 +29241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>877</v>
       </c>
@@ -29261,7 +29267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>878</v>
       </c>
@@ -29287,7 +29293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>879</v>
       </c>
@@ -29310,7 +29316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>880</v>
       </c>
@@ -29333,7 +29339,7 @@
         <v>46.063199999999988</v>
       </c>
     </row>
-    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>881</v>
       </c>
@@ -29356,7 +29362,7 @@
         <v>44.934199999999997</v>
       </c>
     </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>882</v>
       </c>
@@ -29379,7 +29385,7 @@
         <v>61.248249999999999</v>
       </c>
     </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>883</v>
       </c>
@@ -29402,7 +29408,7 @@
         <v>7212.9777800000002</v>
       </c>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>884</v>
       </c>
@@ -29425,7 +29431,7 @@
         <v>24.047699999999999</v>
       </c>
     </row>
-    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>885</v>
       </c>
@@ -29448,7 +29454,7 @@
         <v>16.934999999999999</v>
       </c>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>886</v>
       </c>
@@ -29471,7 +29477,7 @@
         <v>17.273700000000002</v>
       </c>
     </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>887</v>
       </c>
@@ -29494,7 +29500,7 @@
         <v>19.362349999999999</v>
       </c>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>888</v>
       </c>
@@ -29520,7 +29526,7 @@
         <v>26.587949999999999</v>
       </c>
     </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>889</v>
       </c>
@@ -29546,7 +29552,7 @@
         <v>26.587949999999999</v>
       </c>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>890</v>
       </c>
@@ -29572,7 +29578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>891</v>
       </c>
@@ -29595,7 +29601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>892</v>
       </c>
@@ -29618,7 +29624,7 @@
         <v>0.1129</v>
       </c>
     </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
         <v>893</v>
       </c>
@@ -29641,7 +29647,7 @@
         <v>0.1129</v>
       </c>
     </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>894</v>
       </c>
@@ -29664,7 +29670,7 @@
         <v>0.28225</v>
       </c>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>895</v>
       </c>
@@ -29687,7 +29693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>896</v>
       </c>
@@ -29713,7 +29719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>897</v>
       </c>
@@ -29739,7 +29745,7 @@
         <v>1.4677</v>
       </c>
     </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>898</v>
       </c>
@@ -29765,7 +29771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>899</v>
       </c>
@@ -29791,7 +29797,7 @@
         <v>2.0886499999999999</v>
       </c>
     </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>900</v>
       </c>
@@ -29817,7 +29823,7 @@
         <v>2.4838</v>
       </c>
     </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>901</v>
       </c>
@@ -29843,7 +29849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>902</v>
       </c>
@@ -29869,7 +29875,7 @@
         <v>2.258</v>
       </c>
     </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>903</v>
       </c>
@@ -29895,7 +29901,7 @@
         <v>2.8789500000000001</v>
       </c>
     </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>904</v>
       </c>
@@ -29921,7 +29927,7 @@
         <v>4.516</v>
       </c>
     </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>905</v>
       </c>
@@ -29947,7 +29953,7 @@
         <v>3.7629570000000001</v>
       </c>
     </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>906</v>
       </c>
@@ -29973,7 +29979,7 @@
         <v>5.9611200000000002</v>
       </c>
     </row>
-    <row r="900" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>907</v>
       </c>
@@ -29996,7 +30002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>908</v>
       </c>
@@ -30022,7 +30028,7 @@
         <v>3.6590889999999998</v>
       </c>
     </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>909</v>
       </c>
@@ -30045,7 +30051,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>910</v>
       </c>
@@ -30068,7 +30074,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>911</v>
       </c>
@@ -30091,7 +30097,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>912</v>
       </c>
@@ -30114,7 +30120,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>913</v>
       </c>
@@ -30137,7 +30143,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>914</v>
       </c>
@@ -30160,7 +30166,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>915</v>
       </c>
@@ -30183,7 +30189,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>916</v>
       </c>
@@ -30206,7 +30212,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>917</v>
       </c>
@@ -30229,7 +30235,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>918</v>
       </c>
@@ -30252,7 +30258,7 @@
         <v>4.2337499999999997</v>
       </c>
     </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>919</v>
       </c>
@@ -30275,7 +30281,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>920</v>
       </c>
@@ -30298,7 +30304,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
         <v>921</v>
       </c>
@@ -30321,7 +30327,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
         <v>922</v>
       </c>
@@ -30344,7 +30350,7 @@
         <v>3.0482999999999998</v>
       </c>
     </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>923</v>
       </c>
@@ -30367,7 +30373,7 @@
         <v>5.6449999999999996</v>
       </c>
     </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
         <v>924</v>
       </c>
@@ -30390,7 +30396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>925</v>
       </c>
@@ -30413,7 +30419,7 @@
         <v>6.774</v>
       </c>
     </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
         <v>926</v>
       </c>
@@ -30436,7 +30442,7 @@
         <v>6.774</v>
       </c>
     </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
         <v>927</v>
       </c>
@@ -30462,7 +30468,7 @@
         <v>3.387</v>
       </c>
     </row>
-    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>928</v>
       </c>
@@ -30488,7 +30494,7 @@
         <v>8.4110499999999995</v>
       </c>
     </row>
-    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
         <v>929</v>
       </c>
@@ -30514,7 +30520,7 @@
         <v>5.5321000000000007</v>
       </c>
     </row>
-    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
         <v>930</v>
       </c>
@@ -30540,7 +30546,7 @@
         <v>8.2416999999999998</v>
       </c>
     </row>
-    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>931</v>
       </c>
@@ -30566,7 +30572,7 @@
         <v>9.032</v>
       </c>
     </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
         <v>932</v>
       </c>
@@ -30592,7 +30598,7 @@
         <v>5.475649999999999</v>
       </c>
     </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>933</v>
       </c>
@@ -30618,7 +30624,7 @@
         <v>8.3545999999999996</v>
       </c>
     </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
         <v>934</v>
       </c>
@@ -30641,7 +30647,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
         <v>935</v>
       </c>
@@ -30664,7 +30670,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
         <v>936</v>
       </c>
@@ -30687,7 +30693,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
         <v>937</v>
       </c>
@@ -30710,7 +30716,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
         <v>938</v>
       </c>
@@ -30733,7 +30739,7 @@
         <v>20.321999999999999</v>
       </c>
     </row>
-    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
         <v>939</v>
       </c>
@@ -30756,7 +30762,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
         <v>940</v>
       </c>
@@ -30779,7 +30785,7 @@
         <v>20.321999999999999</v>
       </c>
     </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
         <v>941</v>
       </c>
@@ -30805,7 +30811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
         <v>942</v>
       </c>
@@ -30831,7 +30837,7 @@
         <v>37.302160000000001</v>
       </c>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
         <v>943</v>
       </c>
@@ -30857,7 +30863,7 @@
         <v>62.094999999999999</v>
       </c>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
         <v>944</v>
       </c>
@@ -30883,7 +30889,7 @@
         <v>60.288600000000002</v>
       </c>
     </row>
-    <row r="938" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
         <v>945</v>
       </c>
@@ -30909,7 +30915,7 @@
         <v>89.360350000000011</v>
       </c>
     </row>
-    <row r="939" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
         <v>946</v>
       </c>
@@ -30935,7 +30941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
         <v>947</v>
       </c>
@@ -30961,7 +30967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
         <v>948</v>
       </c>
@@ -30987,7 +30993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
         <v>949</v>
       </c>
@@ -31013,7 +31019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
         <v>950</v>
       </c>
@@ -31039,7 +31045,7 @@
         <v>38.386000000000003</v>
       </c>
     </row>
-    <row r="944" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
         <v>951</v>
       </c>
@@ -31065,7 +31071,7 @@
         <v>47.700249999999997</v>
       </c>
     </row>
-    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
         <v>952</v>
       </c>
@@ -31091,7 +31097,7 @@
         <v>36.918300000000002</v>
       </c>
     </row>
-    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
         <v>953</v>
       </c>
@@ -31117,7 +31123,7 @@
         <v>49.450200000000002</v>
       </c>
     </row>
-    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
         <v>954</v>
       </c>
@@ -31140,7 +31146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
         <v>955</v>
       </c>
@@ -31166,7 +31172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
         <v>956</v>
       </c>

--- a/kits.xlsx
+++ b/kits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCPF\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sena_\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50534A6B-0CD8-4A09-9F6E-EBBEA01BD10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DC2BAA-3519-4692-81AE-9744543B48D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="1998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="1997">
   <si>
     <t>CODIGO</t>
   </si>
@@ -6023,10 +6023,7 @@
     <t>https://minhacasaprefabricada.com.br/produto/modelo-chale-escandinavo-1-3-de-2279m%c2%b2/</t>
   </si>
   <si>
-    <t xml:space="preserve">KIT A-FRAME 1.1 (48M²)     </t>
-  </si>
-  <si>
-    <t>https://minhacasaprefabricada.com.br/produto/modelo-chale-a-frame-1-1-de-48m%c2%b2/</t>
+    <t xml:space="preserve">KIT A-FRAME 20 (47,00M²)                                                                                                </t>
   </si>
 </sst>
 </file>
@@ -6099,7 +6096,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6109,6 +6106,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -6416,22 +6414,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I950"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="3" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6460,7 +6456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -6489,7 +6485,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -6515,7 +6511,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -6541,7 +6537,7 @@
         <v>471.8091</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -6567,7 +6563,7 @@
         <v>419.87509999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -6593,7 +6589,7 @@
         <v>3580.1718999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -6619,7 +6615,7 @@
         <v>1242.96126</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -6645,7 +6641,7 @@
         <v>717.12950999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6671,7 +6667,7 @@
         <v>286.76600000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -6697,7 +6693,7 @@
         <v>44.708399999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -6723,7 +6719,7 @@
         <v>553.09709999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -6749,33 +6745,31 @@
         <v>553.09709999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1345</v>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>1354</v>
       </c>
       <c r="B13" t="s">
         <v>1996</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13">
-        <v>3783.34</v>
-      </c>
-      <c r="E13" s="4">
-        <v>18537.32</v>
+        <v>4676</v>
+      </c>
+      <c r="F13" s="4">
+        <f>5283+44854.46</f>
+        <v>50137.46</v>
       </c>
       <c r="G13" s="4">
-        <v>37887.660000000003</v>
+        <v>44854.46</v>
       </c>
       <c r="H13" s="4">
-        <v>4271.37</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -6804,7 +6798,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -6830,7 +6824,7 @@
         <v>40.643999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -6856,7 +6850,7 @@
         <v>437.03590000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -6882,7 +6876,7 @@
         <v>437.03590000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -6908,7 +6902,7 @@
         <v>29.63625</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -6934,7 +6928,7 @@
         <v>302.7978</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -6963,7 +6957,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -6989,7 +6983,7 @@
         <v>302.7978</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -7018,7 +7012,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -7044,7 +7038,7 @@
         <v>110.0775</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -7070,7 +7064,7 @@
         <v>1139.3868</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -7096,7 +7090,7 @@
         <v>1139.3868</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -7125,7 +7119,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -7151,7 +7145,7 @@
         <v>42.337499999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -7177,7 +7171,7 @@
         <v>413.214</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -7203,7 +7197,7 @@
         <v>426.762</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -7232,7 +7226,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -7258,7 +7252,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -7284,7 +7278,7 @@
         <v>371.66680000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -7310,7 +7304,7 @@
         <v>371.66680000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -7339,7 +7333,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -7365,7 +7359,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -7391,7 +7385,7 @@
         <v>612.59539999999993</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -7417,7 +7411,7 @@
         <v>612.59539999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -7443,7 +7437,7 @@
         <v>5054.1039799999999</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -7469,7 +7463,7 @@
         <v>847.5403</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -7495,7 +7489,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -7521,7 +7515,7 @@
         <v>509.40480000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -7547,7 +7541,7 @@
         <v>509.40480000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -7576,7 +7570,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -7602,7 +7596,7 @@
         <v>65.0304</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -7628,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -7654,7 +7648,7 @@
         <v>815.81540000000007</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -7680,7 +7674,7 @@
         <v>815.81540000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -7709,7 +7703,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -7735,7 +7729,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -7761,7 +7755,7 @@
         <v>523.17859999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -7787,7 +7781,7 @@
         <v>523.17859999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -7813,7 +7807,7 @@
         <v>846.97580000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -7842,7 +7836,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -7871,7 +7865,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -7897,7 +7891,7 @@
         <v>1587.9385</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -7923,7 +7917,7 @@
         <v>63.506250000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -7949,7 +7943,7 @@
         <v>520.80769999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -7975,7 +7969,7 @@
         <v>520.80769999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -8004,7 +7998,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -8033,7 +8027,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -8062,7 +8056,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -8085,7 +8079,7 @@
         <v>3052.7031000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -8108,7 +8102,7 @@
         <v>1672.6134999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -8131,7 +8125,7 @@
         <v>55.03875</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -8154,7 +8148,7 @@
         <v>365.79599999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -8177,7 +8171,7 @@
         <v>247.92840000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -8206,7 +8200,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -8232,7 +8226,7 @@
         <v>391.19850000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -8258,7 +8252,7 @@
         <v>12.70125</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -8284,7 +8278,7 @@
         <v>61.756300000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -8310,7 +8304,7 @@
         <v>61.756300000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -8336,7 +8330,7 @@
         <v>232.68690000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -8362,7 +8356,7 @@
         <v>928.4896</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -8391,7 +8385,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -8417,7 +8411,7 @@
         <v>340.95800000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -8443,7 +8437,7 @@
         <v>21.168749999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -8469,7 +8463,7 @@
         <v>241.04150000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -8495,7 +8489,7 @@
         <v>241.04150000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -8521,7 +8515,7 @@
         <v>1039.4703</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -8550,7 +8544,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -8576,7 +8570,7 @@
         <v>1037.94615</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -8602,7 +8596,7 @@
         <v>606.27300000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -8628,7 +8622,7 @@
         <v>28.450800000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -8654,7 +8648,7 @@
         <v>241.04150000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -8680,7 +8674,7 @@
         <v>241.04150000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -8709,7 +8703,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -8735,7 +8729,7 @@
         <v>425.40719999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -8761,7 +8755,7 @@
         <v>728.20500000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -8787,7 +8781,7 @@
         <v>36.579599999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -8813,7 +8807,7 @@
         <v>215.30029999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -8839,7 +8833,7 @@
         <v>215.30029999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -8868,7 +8862,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -8894,7 +8888,7 @@
         <v>595.6604000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -8920,7 +8914,7 @@
         <v>354.50599999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -8946,7 +8940,7 @@
         <v>20.321999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -8972,7 +8966,7 @@
         <v>200.96199999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -8998,7 +8992,7 @@
         <v>200.96199999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -9024,7 +9018,7 @@
         <v>2023.3260600000001</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -9050,7 +9044,7 @@
         <v>631.61905000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -9076,7 +9070,7 @@
         <v>354.50599999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -9102,7 +9096,7 @@
         <v>20.321999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -9128,7 +9122,7 @@
         <v>204.0103</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -9154,7 +9148,7 @@
         <v>217.5583</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -9177,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -9203,7 +9197,7 @@
         <v>8658.2784199999987</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -9229,7 +9223,7 @@
         <v>2194.7759999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -9255,7 +9249,7 @@
         <v>84.674999999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -9281,7 +9275,7 @@
         <v>560.88720000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -9307,7 +9301,7 @@
         <v>560.88720000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -9333,7 +9327,7 @@
         <v>12818.80148</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -9359,7 +9353,7 @@
         <v>3071.4445000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -9385,7 +9379,7 @@
         <v>110.0775</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -9411,7 +9405,7 @@
         <v>536.72659999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -9437,7 +9431,7 @@
         <v>536.72659999999996</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -9463,7 +9457,7 @@
         <v>2633.94571</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -9489,7 +9483,7 @@
         <v>16.2576</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -9515,7 +9509,7 @@
         <v>244.0898</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -9541,7 +9535,7 @@
         <v>244.0898</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -9567,7 +9561,7 @@
         <v>3428.72784</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -9593,7 +9587,7 @@
         <v>526.33979999999997</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -9619,7 +9613,7 @@
         <v>28.450800000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -9645,7 +9639,7 @@
         <v>327.41000000000003</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -9671,7 +9665,7 @@
         <v>327.41000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -9700,7 +9694,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -9726,7 +9720,7 @@
         <v>134.57679999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -9752,7 +9746,7 @@
         <v>773.92949999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -9778,7 +9772,7 @@
         <v>28.450800000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -9804,7 +9798,7 @@
         <v>278.29849999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -9830,7 +9824,7 @@
         <v>278.29849999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -9856,7 +9850,7 @@
         <v>1673.7425000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -9882,7 +9876,7 @@
         <v>1200.52215</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -9908,7 +9902,7 @@
         <v>434.21339999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -9934,7 +9928,7 @@
         <v>434.21339999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -9960,7 +9954,7 @@
         <v>161.16475</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -9989,7 +9983,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -10015,7 +10009,7 @@
         <v>59.272500000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -10044,7 +10038,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -10070,7 +10064,7 @@
         <v>2779.0335</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -10096,7 +10090,7 @@
         <v>93.142499999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -10122,7 +10116,7 @@
         <v>867.97519999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -10148,7 +10142,7 @@
         <v>867.97519999999997</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -10174,7 +10168,7 @@
         <v>449.85005000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -10200,7 +10194,7 @@
         <v>3161.7645000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -10229,7 +10223,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -10255,7 +10249,7 @@
         <v>76.20750000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -10281,7 +10275,7 @@
         <v>1917.2678000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -10307,7 +10301,7 @@
         <v>1917.2678000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -10333,7 +10327,7 @@
         <v>7461.0529500000002</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -10359,7 +10353,7 @@
         <v>76.20750000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -10385,7 +10379,7 @@
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -10411,7 +10405,7 @@
         <v>649.28790000000004</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -10437,7 +10431,7 @@
         <v>649.28790000000004</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -10466,7 +10460,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -10492,7 +10486,7 @@
         <v>2725.4059999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -10518,7 +10512,7 @@
         <v>93.142499999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -10544,7 +10538,7 @@
         <v>564.27420000000006</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -10570,7 +10564,7 @@
         <v>564.27420000000006</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -10596,7 +10590,7 @@
         <v>8682.7325600000004</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -10622,7 +10616,7 @@
         <v>2018.652</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -10648,7 +10642,7 @@
         <v>71.973749999999995</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -10674,7 +10668,7 @@
         <v>257.97649999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -10700,7 +10694,7 @@
         <v>257.97649999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -10723,7 +10717,7 @@
         <v>812.54129999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -10752,7 +10746,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -10778,7 +10772,7 @@
         <v>4647.5285000000003</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -10804,7 +10798,7 @@
         <v>190.51875000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -10830,7 +10824,7 @@
         <v>1255.8996</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -10856,7 +10850,7 @@
         <v>1255.8996</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -10885,7 +10879,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -10911,7 +10905,7 @@
         <v>2725.4059999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -10937,7 +10931,7 @@
         <v>105.84375</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -10963,7 +10957,7 @@
         <v>798.42880000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -10989,7 +10983,7 @@
         <v>798.42880000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -11018,7 +11012,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -11044,7 +11038,7 @@
         <v>2983.3825000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -11070,7 +11064,7 @@
         <v>101.61</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -11096,7 +11090,7 @@
         <v>536.83949999999993</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -11122,7 +11116,7 @@
         <v>536.83949999999993</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>185</v>
       </c>
@@ -11151,7 +11145,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -11177,7 +11171,7 @@
         <v>417.05259999999993</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -11203,7 +11197,7 @@
         <v>8.1288</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -11229,7 +11223,7 @@
         <v>449.00330000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>189</v>
       </c>
@@ -11255,7 +11249,7 @@
         <v>449.00330000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>190</v>
       </c>
@@ -11284,7 +11278,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>191</v>
       </c>
@@ -11310,7 +11304,7 @@
         <v>223.76779999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -11336,7 +11330,7 @@
         <v>8.1288</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>193</v>
       </c>
@@ -11362,7 +11356,7 @@
         <v>340.05479999999989</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>194</v>
       </c>
@@ -11388,7 +11382,7 @@
         <v>340.05479999999989</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>195</v>
       </c>
@@ -11414,7 +11408,7 @@
         <v>1180.3695</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>196</v>
       </c>
@@ -11440,7 +11434,7 @@
         <v>14119.66915</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>197</v>
       </c>
@@ -11466,7 +11460,7 @@
         <v>173.58375000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -11492,7 +11486,7 @@
         <v>1180.3695</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>199</v>
       </c>
@@ -11518,7 +11512,7 @@
         <v>9141.5468700000001</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -11544,7 +11538,7 @@
         <v>65.0304</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>201</v>
       </c>
@@ -11570,7 +11564,7 @@
         <v>466.6157</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>202</v>
       </c>
@@ -11596,7 +11590,7 @@
         <v>466.6157</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>203</v>
       </c>
@@ -11622,7 +11616,7 @@
         <v>15897.742539999999</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>204</v>
       </c>
@@ -11648,7 +11642,7 @@
         <v>84.674999999999997</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -11674,7 +11668,7 @@
         <v>623.54669999999987</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>206</v>
       </c>
@@ -11700,7 +11694,7 @@
         <v>616.77269999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>207</v>
       </c>
@@ -11726,7 +11720,7 @@
         <v>30698.60513</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>208</v>
       </c>
@@ -11752,7 +11746,7 @@
         <v>211.34880000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -11778,7 +11772,7 @@
         <v>1499.0862</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>210</v>
       </c>
@@ -11804,7 +11798,7 @@
         <v>1499.0862</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>211</v>
       </c>
@@ -11830,7 +11824,7 @@
         <v>19332.36376</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>212</v>
       </c>
@@ -11856,7 +11850,7 @@
         <v>127.0125</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>213</v>
       </c>
@@ -11882,7 +11876,7 @@
         <v>977.9398000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>214</v>
       </c>
@@ -11908,7 +11902,7 @@
         <v>977.9398000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>215</v>
       </c>
@@ -11934,7 +11928,7 @@
         <v>14005.459510000001</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -11960,7 +11954,7 @@
         <v>101.61</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -11986,7 +11980,7 @@
         <v>81.852499999999992</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>218</v>
       </c>
@@ -12012,7 +12006,7 @@
         <v>814.68640000000005</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>219</v>
       </c>
@@ -12038,7 +12032,7 @@
         <v>814.68640000000005</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>220</v>
       </c>
@@ -12064,7 +12058,7 @@
         <v>8215.7894500000002</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>221</v>
       </c>
@@ -12090,7 +12084,7 @@
         <v>59.272500000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -12116,7 +12110,7 @@
         <v>570.37080000000003</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>223</v>
       </c>
@@ -12142,7 +12136,7 @@
         <v>570.37080000000003</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>224</v>
       </c>
@@ -12171,7 +12165,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>225</v>
       </c>
@@ -12197,7 +12191,7 @@
         <v>71.973749999999995</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>226</v>
       </c>
@@ -12223,7 +12217,7 @@
         <v>807.12209999999993</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>227</v>
       </c>
@@ -12249,7 +12243,7 @@
         <v>807.12209999999993</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>228</v>
       </c>
@@ -12278,7 +12272,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>229</v>
       </c>
@@ -12304,7 +12298,7 @@
         <v>127.0125</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>230</v>
       </c>
@@ -12330,7 +12324,7 @@
         <v>425.97170000000011</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>231</v>
       </c>
@@ -12356,7 +12350,7 @@
         <v>425.97170000000011</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>232</v>
       </c>
@@ -12382,7 +12376,7 @@
         <v>8969.3405000000002</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>233</v>
       </c>
@@ -12408,7 +12402,7 @@
         <v>56.901600000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>234</v>
       </c>
@@ -12434,7 +12428,7 @@
         <v>510.8725</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>235</v>
       </c>
@@ -12460,7 +12454,7 @@
         <v>510.8725</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>236</v>
       </c>
@@ -12486,7 +12480,7 @@
         <v>16369.50648</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>237</v>
       </c>
@@ -12512,7 +12506,7 @@
         <v>4710.2444500000001</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>238</v>
       </c>
@@ -12538,7 +12532,7 @@
         <v>110.0775</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>239</v>
       </c>
@@ -12564,7 +12558,7 @@
         <v>1358.7515000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>240</v>
       </c>
@@ -12590,7 +12584,7 @@
         <v>1358.7515000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>241</v>
       </c>
@@ -12616,7 +12610,7 @@
         <v>2234.00875</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>242</v>
       </c>
@@ -12645,7 +12639,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>243</v>
       </c>
@@ -12671,7 +12665,7 @@
         <v>207.45375000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>244</v>
       </c>
@@ -12697,7 +12691,7 @@
         <v>1886.8977</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>245</v>
       </c>
@@ -12723,7 +12717,7 @@
         <v>1886.8977</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>246</v>
       </c>
@@ -12749,7 +12743,7 @@
         <v>105.67440000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -12775,7 +12769,7 @@
         <v>15869.50625</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>248</v>
       </c>
@@ -12801,7 +12795,7 @@
         <v>675.02909999999997</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>249</v>
       </c>
@@ -12827,7 +12821,7 @@
         <v>675.02909999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>250</v>
       </c>
@@ -12856,7 +12850,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>251</v>
       </c>
@@ -12882,7 +12876,7 @@
         <v>28.450800000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>252</v>
       </c>
@@ -12908,7 +12902,7 @@
         <v>240.477</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>253</v>
       </c>
@@ -12934,7 +12928,7 @@
         <v>240.477</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>254</v>
       </c>
@@ -12963,7 +12957,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>255</v>
       </c>
@@ -12989,7 +12983,7 @@
         <v>93.142499999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>256</v>
       </c>
@@ -13015,7 +13009,7 @@
         <v>1156.4347</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>257</v>
       </c>
@@ -13041,7 +13035,7 @@
         <v>1156.4347</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>258</v>
       </c>
@@ -13070,7 +13064,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>259</v>
       </c>
@@ -13096,7 +13090,7 @@
         <v>614.85339999999997</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>260</v>
       </c>
@@ -13122,7 +13116,7 @@
         <v>3005.3980000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>261</v>
       </c>
@@ -13148,7 +13142,7 @@
         <v>131.24625</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>262</v>
       </c>
@@ -13174,7 +13168,7 @@
         <v>1267.9799</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>263</v>
       </c>
@@ -13200,7 +13194,7 @@
         <v>1267.9799</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>264</v>
       </c>
@@ -13229,7 +13223,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>265</v>
       </c>
@@ -13255,7 +13249,7 @@
         <v>146.3184</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>266</v>
       </c>
@@ -13281,7 +13275,7 @@
         <v>101.61</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>267</v>
       </c>
@@ -13307,7 +13301,7 @@
         <v>1206.1107</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>268</v>
       </c>
@@ -13333,7 +13327,7 @@
         <v>1206.1107</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>269</v>
       </c>
@@ -13362,7 +13356,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>270</v>
       </c>
@@ -13388,7 +13382,7 @@
         <v>739.89014999999995</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>271</v>
       </c>
@@ -13414,7 +13408,7 @@
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>272</v>
       </c>
@@ -13440,7 +13434,7 @@
         <v>333.84530000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>273</v>
       </c>
@@ -13466,7 +13460,7 @@
         <v>333.84530000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>274</v>
       </c>
@@ -13495,7 +13489,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>275</v>
       </c>
@@ -13521,7 +13515,7 @@
         <v>80.441249999999997</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>276</v>
       </c>
@@ -13547,7 +13541,7 @@
         <v>586.17679999999996</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>277</v>
       </c>
@@ -13573,7 +13567,7 @@
         <v>586.17679999999996</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>278</v>
       </c>
@@ -13599,7 +13593,7 @@
         <v>224.4452</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>279</v>
       </c>
@@ -13625,7 +13619,7 @@
         <v>20587.269840000001</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>280</v>
       </c>
@@ -13651,7 +13645,7 @@
         <v>122.77875</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>281</v>
       </c>
@@ -13677,7 +13671,7 @@
         <v>1142.6609000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>282</v>
       </c>
@@ -13703,7 +13697,7 @@
         <v>1142.6609000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>283</v>
       </c>
@@ -13732,7 +13726,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>284</v>
       </c>
@@ -13758,7 +13752,7 @@
         <v>88.908749999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>285</v>
       </c>
@@ -13784,7 +13778,7 @@
         <v>64.917500000000004</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>286</v>
       </c>
@@ -13810,7 +13804,7 @@
         <v>594.87009999999987</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>287</v>
       </c>
@@ -13836,7 +13830,7 @@
         <v>594.87009999999987</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>288</v>
       </c>
@@ -13862,7 +13856,7 @@
         <v>1146.7253000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>289</v>
       </c>
@@ -13888,7 +13882,7 @@
         <v>265.20209999999997</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>290</v>
       </c>
@@ -13914,7 +13908,7 @@
         <v>1142.548</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>291</v>
       </c>
@@ -13943,7 +13937,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>292</v>
       </c>
@@ -13969,7 +13963,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>293</v>
       </c>
@@ -13995,7 +13989,7 @@
         <v>313.07170000000002</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>294</v>
       </c>
@@ -14021,7 +14015,7 @@
         <v>313.07170000000002</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>295</v>
       </c>
@@ -14050,7 +14044,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>296</v>
       </c>
@@ -14076,7 +14070,7 @@
         <v>920.07855000000006</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>297</v>
       </c>
@@ -14102,7 +14096,7 @@
         <v>219.19534999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>298</v>
       </c>
@@ -14128,7 +14122,7 @@
         <v>1414.6369999999999</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>299</v>
       </c>
@@ -14154,7 +14148,7 @@
         <v>42.337499999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>300</v>
       </c>
@@ -14180,7 +14174,7 @@
         <v>264.97629999999998</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>301</v>
       </c>
@@ -14206,7 +14200,7 @@
         <v>264.97629999999998</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>302</v>
       </c>
@@ -14235,7 +14229,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>303</v>
       </c>
@@ -14261,7 +14255,7 @@
         <v>2351.9892500000001</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>304</v>
       </c>
@@ -14287,7 +14281,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>305</v>
       </c>
@@ -14313,7 +14307,7 @@
         <v>351.23190000000011</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>306</v>
       </c>
@@ -14339,7 +14333,7 @@
         <v>345.47399999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>307</v>
       </c>
@@ -14368,7 +14362,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>308</v>
       </c>
@@ -14394,7 +14388,7 @@
         <v>933.96525000000008</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>309</v>
       </c>
@@ -14420,7 +14414,7 @@
         <v>265.20209999999997</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>310</v>
       </c>
@@ -14446,7 +14440,7 @@
         <v>1448.5070000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>311</v>
       </c>
@@ -14472,7 +14466,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>312</v>
       </c>
@@ -14498,7 +14492,7 @@
         <v>361.28</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>313</v>
       </c>
@@ -14524,7 +14518,7 @@
         <v>361.28</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>314</v>
       </c>
@@ -14553,7 +14547,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>315</v>
       </c>
@@ -14579,7 +14573,7 @@
         <v>1081.2433000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>316</v>
       </c>
@@ -14605,7 +14599,7 @@
         <v>282.81450000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>317</v>
       </c>
@@ -14631,7 +14625,7 @@
         <v>1346.8969999999999</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>318</v>
       </c>
@@ -14657,7 +14651,7 @@
         <v>42.337499999999999</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>319</v>
       </c>
@@ -14683,7 +14677,7 @@
         <v>340.8451</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>320</v>
       </c>
@@ -14709,7 +14703,7 @@
         <v>340.8451</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>321</v>
       </c>
@@ -14735,7 +14729,7 @@
         <v>3314.8456099999999</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>322</v>
       </c>
@@ -14761,7 +14755,7 @@
         <v>840.08889999999997</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>323</v>
       </c>
@@ -14787,7 +14781,7 @@
         <v>232.2353</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>324</v>
       </c>
@@ -14813,7 +14807,7 @@
         <v>1095.1300000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>325</v>
       </c>
@@ -14839,7 +14833,7 @@
         <v>33.869999999999997</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>326</v>
       </c>
@@ -14865,7 +14859,7 @@
         <v>282.13709999999998</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>327</v>
       </c>
@@ -14891,7 +14885,7 @@
         <v>282.13709999999998</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>328</v>
       </c>
@@ -14920,7 +14914,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>329</v>
       </c>
@@ -14946,7 +14940,7 @@
         <v>1114.7181499999999</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>330</v>
       </c>
@@ -14972,7 +14966,7 @@
         <v>134.06874999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>331</v>
       </c>
@@ -14998,7 +14992,7 @@
         <v>1414.6369999999999</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>332</v>
       </c>
@@ -15024,7 +15018,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>333</v>
       </c>
@@ -15050,7 +15044,7 @@
         <v>261.7022</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>334</v>
       </c>
@@ -15076,7 +15070,7 @@
         <v>261.7022</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>335</v>
       </c>
@@ -15102,7 +15096,7 @@
         <v>1108.84735</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>336</v>
       </c>
@@ -15128,7 +15122,7 @@
         <v>389.78724999999997</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>337</v>
       </c>
@@ -15154,7 +15148,7 @@
         <v>1632.5340000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>338</v>
       </c>
@@ -15183,7 +15177,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>339</v>
       </c>
@@ -15209,7 +15203,7 @@
         <v>55.03875</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>340</v>
       </c>
@@ -15235,7 +15229,7 @@
         <v>457.69659999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>341</v>
       </c>
@@ -15261,7 +15255,7 @@
         <v>457.69659999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>342</v>
       </c>
@@ -15290,7 +15284,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>343</v>
       </c>
@@ -15316,7 +15310,7 @@
         <v>1584.5515</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>344</v>
       </c>
@@ -15342,7 +15336,7 @@
         <v>525.49304999999993</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>345</v>
       </c>
@@ -15368,7 +15362,7 @@
         <v>2067.1990000000001</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>346</v>
       </c>
@@ -15394,7 +15388,7 @@
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>347</v>
       </c>
@@ -15420,7 +15414,7 @@
         <v>543.61349999999993</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>348</v>
       </c>
@@ -15446,7 +15440,7 @@
         <v>543.61349999999993</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>349</v>
       </c>
@@ -15475,7 +15469,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>350</v>
       </c>
@@ -15501,7 +15495,7 @@
         <v>1270.40725</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>351</v>
       </c>
@@ -15527,7 +15521,7 @@
         <v>2326.8690000000001</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>352</v>
       </c>
@@ -15553,7 +15547,7 @@
         <v>80.441249999999997</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>353</v>
       </c>
@@ -15579,7 +15573,7 @@
         <v>55.321000000000012</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>354</v>
       </c>
@@ -15605,7 +15599,7 @@
         <v>571.49979999999994</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>355</v>
       </c>
@@ -15631,7 +15625,7 @@
         <v>571.49979999999994</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>356</v>
       </c>
@@ -15657,7 +15651,7 @@
         <v>4086.8332300000002</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>357</v>
       </c>
@@ -15683,7 +15677,7 @@
         <v>646.97344999999996</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>358</v>
       </c>
@@ -15709,7 +15703,7 @@
         <v>152.35855000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>359</v>
       </c>
@@ -15735,7 +15729,7 @@
         <v>1354.8</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>360</v>
       </c>
@@ -15758,7 +15752,7 @@
         <v>202.99420000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>361</v>
       </c>
@@ -15784,7 +15778,7 @@
         <v>42.337499999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>362</v>
       </c>
@@ -15810,7 +15804,7 @@
         <v>202.99420000000001</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>363</v>
       </c>
@@ -15839,7 +15833,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>364</v>
       </c>
@@ -15865,7 +15859,7 @@
         <v>232.9127</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>365</v>
       </c>
@@ -15891,7 +15885,7 @@
         <v>1402.2180000000001</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>366</v>
       </c>
@@ -15917,7 +15911,7 @@
         <v>42.337499999999999</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>367</v>
       </c>
@@ -15943,7 +15937,7 @@
         <v>326.84550000000002</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>368</v>
       </c>
@@ -15969,7 +15963,7 @@
         <v>326.84550000000002</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>369</v>
       </c>
@@ -15995,7 +15989,7 @@
         <v>6255.2696599999999</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>370</v>
       </c>
@@ -16021,7 +16015,7 @@
         <v>1756.8933500000001</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>371</v>
       </c>
@@ -16047,7 +16041,7 @@
         <v>512.17084999999997</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>372</v>
       </c>
@@ -16073,7 +16067,7 @@
         <v>1755.595</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>373</v>
       </c>
@@ -16099,7 +16093,7 @@
         <v>59.272500000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>374</v>
       </c>
@@ -16125,7 +16119,7 @@
         <v>629.75619999999992</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>375</v>
       </c>
@@ -16151,7 +16145,7 @@
         <v>629.75619999999992</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>376</v>
       </c>
@@ -16177,7 +16171,7 @@
         <v>4794.8855800000001</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>377</v>
       </c>
@@ -16203,7 +16197,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>378</v>
       </c>
@@ -16229,7 +16223,7 @@
         <v>385.21480000000003</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>379</v>
       </c>
@@ -16255,7 +16249,7 @@
         <v>385.21480000000003</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>380</v>
       </c>
@@ -16281,7 +16275,7 @@
         <v>10749.58157</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>381</v>
       </c>
@@ -16307,7 +16301,7 @@
         <v>63.506250000000001</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>382</v>
       </c>
@@ -16333,7 +16327,7 @@
         <v>494.55844999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>383</v>
       </c>
@@ -16359,7 +16353,7 @@
         <v>807.79950000000008</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>384</v>
       </c>
@@ -16385,7 +16379,7 @@
         <v>7889.3165200000003</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>385</v>
       </c>
@@ -16411,7 +16405,7 @@
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>386</v>
       </c>
@@ -16437,7 +16431,7 @@
         <v>757.22030000000007</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>387</v>
       </c>
@@ -16463,7 +16457,7 @@
         <v>757.22030000000007</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>388</v>
       </c>
@@ -16489,7 +16483,7 @@
         <v>10233.131810000001</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>389</v>
       </c>
@@ -16515,7 +16509,7 @@
         <v>265.87950000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>390</v>
       </c>
@@ -16541,7 +16535,7 @@
         <v>76.20750000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>391</v>
       </c>
@@ -16567,7 +16561,7 @@
         <v>702.01219999999989</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>392</v>
       </c>
@@ -16593,7 +16587,7 @@
         <v>702.01219999999989</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>393</v>
       </c>
@@ -16619,7 +16613,7 @@
         <v>3377.2567300000001</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>394</v>
       </c>
@@ -16645,7 +16639,7 @@
         <v>152.1892</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>395</v>
       </c>
@@ -16671,7 +16665,7 @@
         <v>898.68400000000008</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>396</v>
       </c>
@@ -16697,7 +16691,7 @@
         <v>32.5152</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>397</v>
       </c>
@@ -16723,7 +16717,7 @@
         <v>309.91050000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>398</v>
       </c>
@@ -16749,7 +16743,7 @@
         <v>309.91050000000001</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>399</v>
       </c>
@@ -16778,7 +16772,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>400</v>
       </c>
@@ -16804,7 +16798,7 @@
         <v>763.48625000000004</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>401</v>
       </c>
@@ -16830,7 +16824,7 @@
         <v>425.01204999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>402</v>
       </c>
@@ -16856,7 +16850,7 @@
         <v>1401.0889999999999</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>403</v>
       </c>
@@ -16882,7 +16876,7 @@
         <v>44.708399999999997</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>404</v>
       </c>
@@ -16908,7 +16902,7 @@
         <v>457.58370000000002</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>405</v>
       </c>
@@ -16934,7 +16928,7 @@
         <v>457.58370000000002</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>406</v>
       </c>
@@ -16963,7 +16957,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>407</v>
       </c>
@@ -16989,7 +16983,7 @@
         <v>1887.9702500000001</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>408</v>
       </c>
@@ -17015,7 +17009,7 @@
         <v>372.17484999999999</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>409</v>
       </c>
@@ -17041,7 +17035,7 @@
         <v>2055.9090000000001</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>410</v>
       </c>
@@ -17067,7 +17061,7 @@
         <v>80.441249999999997</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>411</v>
       </c>
@@ -17093,7 +17087,7 @@
         <v>632.91739999999993</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>412</v>
       </c>
@@ -17119,7 +17113,7 @@
         <v>632.91739999999993</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>413</v>
       </c>
@@ -17148,7 +17142,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>414</v>
       </c>
@@ -17174,7 +17168,7 @@
         <v>1284.6891000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>415</v>
       </c>
@@ -17200,7 +17194,7 @@
         <v>232.2353</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>416</v>
       </c>
@@ -17226,7 +17220,7 @@
         <v>1801.884</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>417</v>
       </c>
@@ -17252,7 +17246,7 @@
         <v>59.272500000000001</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>418</v>
       </c>
@@ -17278,7 +17272,7 @@
         <v>443.47120000000012</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>419</v>
       </c>
@@ -17304,7 +17298,7 @@
         <v>443.47120000000012</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>420</v>
       </c>
@@ -17330,7 +17324,7 @@
         <v>1817.8593499999999</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>421</v>
       </c>
@@ -17356,7 +17350,7 @@
         <v>335.65170000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>422</v>
       </c>
@@ -17382,7 +17376,7 @@
         <v>1537.6980000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>423</v>
       </c>
@@ -17411,7 +17405,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>424</v>
       </c>
@@ -17437,7 +17431,7 @@
         <v>55.03875</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>425</v>
       </c>
@@ -17463,7 +17457,7 @@
         <v>519.67869999999994</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>426</v>
       </c>
@@ -17489,7 +17483,7 @@
         <v>519.67869999999994</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>427</v>
       </c>
@@ -17518,7 +17512,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>428</v>
       </c>
@@ -17544,7 +17538,7 @@
         <v>1994.0398</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>429</v>
       </c>
@@ -17570,7 +17564,7 @@
         <v>2692.665</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>430</v>
       </c>
@@ -17596,7 +17590,7 @@
         <v>84.674999999999997</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>431</v>
       </c>
@@ -17622,7 +17616,7 @@
         <v>275.476</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>432</v>
       </c>
@@ -17648,7 +17642,7 @@
         <v>275.476</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>433</v>
       </c>
@@ -17677,7 +17671,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>434</v>
       </c>
@@ -17703,7 +17697,7 @@
         <v>2908.1911</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>435</v>
       </c>
@@ -17729,7 +17723,7 @@
         <v>539.88779999999997</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>436</v>
       </c>
@@ -17755,7 +17749,7 @@
         <v>1865.1079999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>437</v>
       </c>
@@ -17781,7 +17775,7 @@
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>438</v>
       </c>
@@ -17807,7 +17801,7 @@
         <v>789.17099999999994</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>439</v>
       </c>
@@ -17833,7 +17827,7 @@
         <v>789.17099999999994</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>440</v>
       </c>
@@ -17859,7 +17853,7 @@
         <v>1506.4811500000001</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>441</v>
       </c>
@@ -17885,7 +17879,7 @@
         <v>164.38239999999999</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>442</v>
       </c>
@@ -17911,7 +17905,7 @@
         <v>1517.376</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>443</v>
       </c>
@@ -17940,7 +17934,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>444</v>
       </c>
@@ -17966,7 +17960,7 @@
         <v>55.03875</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>445</v>
       </c>
@@ -17992,7 +17986,7 @@
         <v>557.50020000000006</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>446</v>
       </c>
@@ -18018,7 +18012,7 @@
         <v>557.50020000000006</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>447</v>
       </c>
@@ -18044,7 +18038,7 @@
         <v>6283.7994900000012</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>448</v>
       </c>
@@ -18070,7 +18064,7 @@
         <v>1642.41275</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>449</v>
       </c>
@@ -18096,7 +18090,7 @@
         <v>350.32870000000003</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>450</v>
       </c>
@@ -18122,7 +18116,7 @@
         <v>1687.855</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>451</v>
       </c>
@@ -18148,7 +18142,7 @@
         <v>63.506250000000001</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>452</v>
       </c>
@@ -18174,7 +18168,7 @@
         <v>622.86930000000007</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>453</v>
       </c>
@@ -18200,7 +18194,7 @@
         <v>622.86930000000007</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>454</v>
       </c>
@@ -18226,7 +18220,7 @@
         <v>483.72005000000001</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>455</v>
       </c>
@@ -18252,7 +18246,7 @@
         <v>2203.808</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>456</v>
       </c>
@@ -18281,7 +18275,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>457</v>
       </c>
@@ -18307,7 +18301,7 @@
         <v>76.20750000000001</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>458</v>
       </c>
@@ -18333,7 +18327,7 @@
         <v>557.50020000000006</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>459</v>
       </c>
@@ -18359,7 +18353,7 @@
         <v>557.50020000000006</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>460</v>
       </c>
@@ -18388,7 +18382,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>461</v>
       </c>
@@ -18414,7 +18408,7 @@
         <v>1683.1132</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>462</v>
       </c>
@@ -18440,7 +18434,7 @@
         <v>444.93889999999999</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>463</v>
       </c>
@@ -18466,7 +18460,7 @@
         <v>2312.192</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>464</v>
       </c>
@@ -18492,7 +18486,7 @@
         <v>73.159199999999998</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>465</v>
       </c>
@@ -18518,7 +18512,7 @@
         <v>612.48249999999996</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>466</v>
       </c>
@@ -18544,7 +18538,7 @@
         <v>612.48249999999996</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>467</v>
       </c>
@@ -18570,7 +18564,7 @@
         <v>2288.1442999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>468</v>
       </c>
@@ -18596,7 +18590,7 @@
         <v>650.07819999999992</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>469</v>
       </c>
@@ -18622,7 +18616,7 @@
         <v>2176.712</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>470</v>
       </c>
@@ -18651,7 +18645,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>471</v>
       </c>
@@ -18677,7 +18671,7 @@
         <v>76.20750000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>472</v>
       </c>
@@ -18703,7 +18697,7 @@
         <v>825.97640000000001</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>473</v>
       </c>
@@ -18729,7 +18723,7 @@
         <v>825.97640000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>474</v>
       </c>
@@ -18755,7 +18749,7 @@
         <v>9708.0339100000019</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>475</v>
       </c>
@@ -18781,7 +18775,7 @@
         <v>677.85159999999996</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>476</v>
       </c>
@@ -18807,7 +18801,7 @@
         <v>2041.232</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>477</v>
       </c>
@@ -18833,7 +18827,7 @@
         <v>73.159199999999998</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>478</v>
       </c>
@@ -18859,7 +18853,7 @@
         <v>898.34530000000007</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>479</v>
       </c>
@@ -18885,7 +18879,7 @@
         <v>898.34530000000007</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>480</v>
       </c>
@@ -18914,7 +18908,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>481</v>
       </c>
@@ -18940,7 +18934,7 @@
         <v>301.10430000000002</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>482</v>
       </c>
@@ -18966,7 +18960,7 @@
         <v>63.506250000000001</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>483</v>
       </c>
@@ -18992,7 +18986,7 @@
         <v>584.70910000000003</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>484</v>
       </c>
@@ -19018,7 +19012,7 @@
         <v>584.70910000000003</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>485</v>
       </c>
@@ -19047,7 +19041,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>486</v>
       </c>
@@ -19073,7 +19067,7 @@
         <v>1577.83395</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>487</v>
       </c>
@@ -19099,7 +19093,7 @@
         <v>425.01204999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>488</v>
       </c>
@@ -19125,7 +19119,7 @@
         <v>2190.2600000000002</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>489</v>
       </c>
@@ -19151,7 +19145,7 @@
         <v>71.973749999999995</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>490</v>
       </c>
@@ -19177,7 +19171,7 @@
         <v>615.98239999999998</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>491</v>
       </c>
@@ -19203,7 +19197,7 @@
         <v>615.98239999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>492</v>
       </c>
@@ -19229,7 +19223,7 @@
         <v>1695.9273499999999</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>493</v>
       </c>
@@ -19255,7 +19249,7 @@
         <v>1166.20055</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>494</v>
       </c>
@@ -19281,7 +19275,7 @@
         <v>2156.39</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>495</v>
       </c>
@@ -19310,7 +19304,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>496</v>
       </c>
@@ -19336,7 +19330,7 @@
         <v>71.973749999999995</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>497</v>
       </c>
@@ -19362,7 +19356,7 @@
         <v>564.27420000000006</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>498</v>
       </c>
@@ -19388,7 +19382,7 @@
         <v>564.27420000000006</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>499</v>
       </c>
@@ -19417,7 +19411,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>500</v>
       </c>
@@ -19443,7 +19437,7 @@
         <v>7738.3917999999994</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>501</v>
       </c>
@@ -19469,7 +19463,7 @@
         <v>939.10219999999993</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>502</v>
       </c>
@@ -19495,7 +19489,7 @@
         <v>7527.0429999999997</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>503</v>
       </c>
@@ -19521,7 +19515,7 @@
         <v>262.49250000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>504</v>
       </c>
@@ -19547,7 +19541,7 @@
         <v>2141.1484999999998</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>505</v>
       </c>
@@ -19573,7 +19567,7 @@
         <v>2141.1484999999998</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>506</v>
       </c>
@@ -19599,7 +19593,7 @@
         <v>9950.36247</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>507</v>
       </c>
@@ -19625,7 +19619,7 @@
         <v>110.0775</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>508</v>
       </c>
@@ -19651,7 +19645,7 @@
         <v>557.83890000000008</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>509</v>
       </c>
@@ -19677,7 +19671,7 @@
         <v>557.83890000000008</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>510</v>
       </c>
@@ -19703,7 +19697,7 @@
         <v>2096.4965499999998</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>511</v>
       </c>
@@ -19729,7 +19723,7 @@
         <v>1842.528</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>512</v>
       </c>
@@ -19758,7 +19752,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>513</v>
       </c>
@@ -19784,7 +19778,7 @@
         <v>56.901600000000002</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>514</v>
       </c>
@@ -19810,7 +19804,7 @@
         <v>358.11880000000002</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>515</v>
       </c>
@@ -19836,7 +19830,7 @@
         <v>358.11880000000002</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>516</v>
       </c>
@@ -19862,7 +19856,7 @@
         <v>1337.3005000000001</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>517</v>
       </c>
@@ -19888,7 +19882,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>518</v>
       </c>
@@ -19914,7 +19908,7 @@
         <v>296.13670000000002</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>519</v>
       </c>
@@ -19940,7 +19934,7 @@
         <v>296.13670000000002</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>520</v>
       </c>
@@ -19969,7 +19963,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>521</v>
       </c>
@@ -19995,7 +19989,7 @@
         <v>3065.4043499999998</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>522</v>
       </c>
@@ -20021,7 +20015,7 @@
         <v>350.66739999999999</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>523</v>
       </c>
@@ -20047,7 +20041,7 @@
         <v>1993.8140000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>524</v>
       </c>
@@ -20073,7 +20067,7 @@
         <v>48.772799999999997</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>525</v>
       </c>
@@ -20099,7 +20093,7 @@
         <v>433.87470000000002</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>526</v>
       </c>
@@ -20125,7 +20119,7 @@
         <v>433.87470000000002</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>527</v>
       </c>
@@ -20151,7 +20145,7 @@
         <v>71.973749999999995</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>528</v>
       </c>
@@ -20177,7 +20171,7 @@
         <v>591.41536000000008</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>529</v>
       </c>
@@ -20203,7 +20197,7 @@
         <v>92.80380000000001</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>530</v>
       </c>
@@ -20232,7 +20226,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>531</v>
       </c>
@@ -20258,7 +20252,7 @@
         <v>4171.0905000000002</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>532</v>
       </c>
@@ -20284,7 +20278,7 @@
         <v>76.20750000000001</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>533</v>
       </c>
@@ -20310,7 +20304,7 @@
         <v>540.22649999999999</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>534</v>
       </c>
@@ -20336,7 +20330,7 @@
         <v>540.22649999999999</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>535</v>
       </c>
@@ -20362,7 +20356,7 @@
         <v>2336.6009800000002</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>536</v>
       </c>
@@ -20388,7 +20382,7 @@
         <v>467.68824999999998</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>537</v>
       </c>
@@ -20414,7 +20408,7 @@
         <v>33.869999999999997</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>538</v>
       </c>
@@ -20440,7 +20434,7 @@
         <v>216.768</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>539</v>
       </c>
@@ -20466,7 +20460,7 @@
         <v>216.768</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>540</v>
       </c>
@@ -20492,7 +20486,7 @@
         <v>495.06650000000002</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>541</v>
       </c>
@@ -20521,7 +20515,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>542</v>
       </c>
@@ -20547,7 +20541,7 @@
         <v>409.0367</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>543</v>
       </c>
@@ -20573,7 +20567,7 @@
         <v>282.81450000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>544</v>
       </c>
@@ -20599,7 +20593,7 @@
         <v>1127.3064999999999</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>545</v>
       </c>
@@ -20625,7 +20619,7 @@
         <v>33.869999999999997</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>546</v>
       </c>
@@ -20651,7 +20645,7 @@
         <v>275.13729999999998</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>547</v>
       </c>
@@ -20677,7 +20671,7 @@
         <v>275.13729999999998</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>548</v>
       </c>
@@ -20703,7 +20697,7 @@
         <v>13899.457700000001</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>549</v>
       </c>
@@ -20729,7 +20723,7 @@
         <v>6600.134</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>550</v>
       </c>
@@ -20755,7 +20749,7 @@
         <v>215.92124999999999</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>551</v>
       </c>
@@ -20781,7 +20775,7 @@
         <v>777.65519999999992</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>552</v>
       </c>
@@ -20807,7 +20801,7 @@
         <v>777.65519999999992</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>553</v>
       </c>
@@ -20833,7 +20827,7 @@
         <v>24910.786629999999</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>554</v>
       </c>
@@ -20859,7 +20853,7 @@
         <v>1622.1472000000001</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>555</v>
       </c>
@@ -20885,7 +20879,7 @@
         <v>4493.42</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>556</v>
       </c>
@@ -20911,7 +20905,7 @@
         <v>156.64875000000001</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>557</v>
       </c>
@@ -20937,7 +20931,7 @@
         <v>1545.2623000000001</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>558</v>
       </c>
@@ -20963,7 +20957,7 @@
         <v>1545.2623000000001</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>559</v>
       </c>
@@ -20989,7 +20983,7 @@
         <v>6352.2846300000001</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>560</v>
       </c>
@@ -21018,7 +21012,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>561</v>
       </c>
@@ -21044,7 +21038,7 @@
         <v>134.57679999999999</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>562</v>
       </c>
@@ -21070,7 +21064,7 @@
         <v>592.72500000000002</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>563</v>
       </c>
@@ -21096,7 +21090,7 @@
         <v>32.5152</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>564</v>
       </c>
@@ -21122,7 +21116,7 @@
         <v>257.63780000000003</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>565</v>
       </c>
@@ -21148,7 +21142,7 @@
         <v>257.63780000000003</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>566</v>
       </c>
@@ -21174,7 +21168,7 @@
         <v>408.92380000000003</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>567</v>
       </c>
@@ -21200,7 +21194,7 @@
         <v>12639.80982</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>568</v>
       </c>
@@ -21226,7 +21220,7 @@
         <v>1495.3605</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>569</v>
       </c>
@@ -21252,7 +21246,7 @@
         <v>59.272500000000001</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>570</v>
       </c>
@@ -21278,7 +21272,7 @@
         <v>408.92380000000003</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>571</v>
       </c>
@@ -21304,7 +21298,7 @@
         <v>1898.7521999999999</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>572</v>
       </c>
@@ -21330,7 +21324,7 @@
         <v>63.506250000000001</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>573</v>
       </c>
@@ -21356,7 +21350,7 @@
         <v>444.03570000000002</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>574</v>
       </c>
@@ -21385,7 +21379,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>575</v>
       </c>
@@ -21411,7 +21405,7 @@
         <v>404.12554999999998</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>576</v>
       </c>
@@ -21437,7 +21431,7 @@
         <v>130.51240000000001</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>577</v>
       </c>
@@ -21463,7 +21457,7 @@
         <v>462.89</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>578</v>
       </c>
@@ -21489,7 +21483,7 @@
         <v>21.168749999999999</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>579</v>
       </c>
@@ -21515,7 +21509,7 @@
         <v>240.81569999999999</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>580</v>
       </c>
@@ -21541,7 +21535,7 @@
         <v>240.81569999999999</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>581</v>
       </c>
@@ -21567,7 +21561,7 @@
         <v>532.04124999999999</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>582</v>
       </c>
@@ -21593,7 +21587,7 @@
         <v>188.20429999999999</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>583</v>
       </c>
@@ -21619,7 +21613,7 @@
         <v>1116.5809999999999</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>584</v>
       </c>
@@ -21648,7 +21642,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>585</v>
       </c>
@@ -21674,7 +21668,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>586</v>
       </c>
@@ -21700,7 +21694,7 @@
         <v>275.13729999999998</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>587</v>
       </c>
@@ -21726,7 +21720,7 @@
         <v>275.13729999999998</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>588</v>
       </c>
@@ -21752,7 +21746,7 @@
         <v>576.74964999999997</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>589</v>
       </c>
@@ -21778,7 +21772,7 @@
         <v>572.40300000000002</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>590</v>
       </c>
@@ -21807,7 +21801,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>591</v>
       </c>
@@ -21833,7 +21827,7 @@
         <v>29.63625</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>592</v>
       </c>
@@ -21859,7 +21853,7 @@
         <v>289.024</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>593</v>
       </c>
@@ -21885,7 +21879,7 @@
         <v>289.024</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>594</v>
       </c>
@@ -21911,7 +21905,7 @@
         <v>7211.6455599999999</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>595</v>
       </c>
@@ -21937,7 +21931,7 @@
         <v>2599.1273500000002</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>596</v>
       </c>
@@ -21963,7 +21957,7 @@
         <v>354.50599999999997</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>597</v>
       </c>
@@ -21989,7 +21983,7 @@
         <v>63.506250000000001</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>598</v>
       </c>
@@ -22015,7 +22009,7 @@
         <v>319.95859999999999</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>599</v>
       </c>
@@ -22041,7 +22035,7 @@
         <v>319.95859999999999</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>600</v>
       </c>
@@ -22067,7 +22061,7 @@
         <v>71.973749999999995</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>601</v>
       </c>
@@ -22093,7 +22087,7 @@
         <v>588.54769999999996</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>602</v>
       </c>
@@ -22119,7 +22113,7 @@
         <v>588.54769999999996</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>603</v>
       </c>
@@ -22148,7 +22142,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>604</v>
       </c>
@@ -22174,7 +22168,7 @@
         <v>387.13409999999999</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>605</v>
       </c>
@@ -22200,7 +22194,7 @@
         <v>318.7167</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>606</v>
       </c>
@@ -22226,7 +22220,7 @@
         <v>1313.027</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>607</v>
       </c>
@@ -22252,7 +22246,7 @@
         <v>42.337499999999999</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>608</v>
       </c>
@@ -22278,7 +22272,7 @@
         <v>364.66699999999997</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>609</v>
       </c>
@@ -22304,7 +22298,7 @@
         <v>364.66699999999997</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>610</v>
       </c>
@@ -22333,7 +22327,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>611</v>
       </c>
@@ -22359,7 +22353,7 @@
         <v>175.84174999999999</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>612</v>
       </c>
@@ -22385,7 +22379,7 @@
         <v>247.251</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>613</v>
       </c>
@@ -22411,7 +22405,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>614</v>
       </c>
@@ -22437,7 +22431,7 @@
         <v>268.36329999999998</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>615</v>
       </c>
@@ -22463,7 +22457,7 @@
         <v>268.36329999999998</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>616</v>
       </c>
@@ -22492,7 +22486,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>617</v>
       </c>
@@ -22518,7 +22512,7 @@
         <v>680.78700000000003</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>618</v>
       </c>
@@ -22544,7 +22538,7 @@
         <v>36.579599999999999</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>619</v>
       </c>
@@ -22570,7 +22564,7 @@
         <v>502.29209999999989</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>620</v>
       </c>
@@ -22596,7 +22590,7 @@
         <v>502.29209999999989</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>621</v>
       </c>
@@ -22622,7 +22616,7 @@
         <v>399.4402</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>622</v>
       </c>
@@ -22648,7 +22642,7 @@
         <v>554.33899999999994</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>623</v>
       </c>
@@ -22677,7 +22671,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>624</v>
       </c>
@@ -22703,7 +22697,7 @@
         <v>60.966000000000001</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>625</v>
       </c>
@@ -22729,7 +22723,7 @@
         <v>746.83349999999996</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>626</v>
       </c>
@@ -22755,7 +22749,7 @@
         <v>746.83349999999996</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>627</v>
       </c>
@@ -22781,7 +22775,7 @@
         <v>7773.0069399999993</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>628</v>
       </c>
@@ -22807,7 +22801,7 @@
         <v>56.901600000000002</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>629</v>
       </c>
@@ -22833,7 +22827,7 @@
         <v>536.50080000000003</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>630</v>
       </c>
@@ -22859,7 +22853,7 @@
         <v>536.50080000000003</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>631</v>
       </c>
@@ -22888,7 +22882,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>632</v>
       </c>
@@ -22914,7 +22908,7 @@
         <v>1081.5820000000001</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>633</v>
       </c>
@@ -22940,7 +22934,7 @@
         <v>36.579599999999999</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>634</v>
       </c>
@@ -22966,7 +22960,7 @@
         <v>275.13729999999998</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>635</v>
       </c>
@@ -22992,7 +22986,7 @@
         <v>275.13729999999998</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>636</v>
       </c>
@@ -23018,7 +23012,7 @@
         <v>265.20209999999997</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>637</v>
       </c>
@@ -23044,7 +23038,7 @@
         <v>29.63625</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>638</v>
       </c>
@@ -23070,7 +23064,7 @@
         <v>598.37</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>639</v>
       </c>
@@ -23099,7 +23093,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>640</v>
       </c>
@@ -23125,7 +23119,7 @@
         <v>412.98820000000001</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>641</v>
       </c>
@@ -23151,7 +23145,7 @@
         <v>412.98820000000001</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>642</v>
       </c>
@@ -23180,7 +23174,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>643</v>
       </c>
@@ -23206,7 +23200,7 @@
         <v>580.58825000000002</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>644</v>
       </c>
@@ -23232,7 +23226,7 @@
         <v>188.20429999999999</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>645</v>
       </c>
@@ -23258,7 +23252,7 @@
         <v>225.8</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>646</v>
       </c>
@@ -23284,7 +23278,7 @@
         <v>21.168749999999999</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>647</v>
       </c>
@@ -23310,7 +23304,7 @@
         <v>399.21440000000001</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>648</v>
       </c>
@@ -23336,7 +23330,7 @@
         <v>399.21440000000001</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>649</v>
       </c>
@@ -23362,7 +23356,7 @@
         <v>439.57614999999998</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>650</v>
       </c>
@@ -23388,7 +23382,7 @@
         <v>188.20429999999999</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>651</v>
       </c>
@@ -23414,7 +23408,7 @@
         <v>278.863</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>652</v>
       </c>
@@ -23443,7 +23437,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>653</v>
       </c>
@@ -23469,7 +23463,7 @@
         <v>20.321999999999999</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>654</v>
       </c>
@@ -23495,7 +23489,7 @@
         <v>333.73239999999998</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>655</v>
       </c>
@@ -23521,7 +23515,7 @@
         <v>333.73239999999998</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>656</v>
       </c>
@@ -23550,7 +23544,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>657</v>
       </c>
@@ -23576,7 +23570,7 @@
         <v>1468.6032</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>658</v>
       </c>
@@ -23602,7 +23596,7 @@
         <v>606.04719999999998</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>659</v>
       </c>
@@ -23628,7 +23622,7 @@
         <v>1027.3900000000001</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>660</v>
       </c>
@@ -23654,7 +23648,7 @@
         <v>33.869999999999997</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>661</v>
       </c>
@@ -23680,7 +23674,7 @@
         <v>550.38749999999993</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>662</v>
       </c>
@@ -23706,7 +23700,7 @@
         <v>550.38749999999993</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>663</v>
       </c>
@@ -23732,7 +23726,7 @@
         <v>4965.10491</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>664</v>
       </c>
@@ -23758,7 +23752,7 @@
         <v>925.78</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>665</v>
       </c>
@@ -23784,7 +23778,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>666</v>
       </c>
@@ -23810,7 +23804,7 @@
         <v>316.3458</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>667</v>
       </c>
@@ -23836,7 +23830,7 @@
         <v>316.3458</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>668</v>
       </c>
@@ -23862,7 +23856,7 @@
         <v>557.16150000000005</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>669</v>
       </c>
@@ -23888,7 +23882,7 @@
         <v>211.12299999999999</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>670</v>
       </c>
@@ -23917,7 +23911,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>671</v>
       </c>
@@ -23943,7 +23937,7 @@
         <v>25.4025</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>672</v>
       </c>
@@ -23969,7 +23963,7 @@
         <v>378.55369999999999</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>673</v>
       </c>
@@ -23995,7 +23989,7 @@
         <v>378.55369999999999</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>674</v>
       </c>
@@ -24024,7 +24018,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>675</v>
       </c>
@@ -24050,7 +24044,7 @@
         <v>12.70125</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>676</v>
       </c>
@@ -24076,7 +24070,7 @@
         <v>151.3989</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>677</v>
       </c>
@@ -24102,7 +24096,7 @@
         <v>151.3989</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>678</v>
       </c>
@@ -24128,7 +24122,7 @@
         <v>8500.6926000000003</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>679</v>
       </c>
@@ -24154,7 +24148,7 @@
         <v>4257.5154499999999</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>680</v>
       </c>
@@ -24180,7 +24174,7 @@
         <v>1517.376</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>681</v>
       </c>
@@ -24206,7 +24200,7 @@
         <v>84.674999999999997</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>682</v>
       </c>
@@ -24232,7 +24226,7 @@
         <v>1155.9830999999999</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>683</v>
       </c>
@@ -24258,7 +24252,7 @@
         <v>1155.9830999999999</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>684</v>
       </c>
@@ -24287,7 +24281,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>685</v>
       </c>
@@ -24313,7 +24307,7 @@
         <v>6167.7269999999999</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>686</v>
       </c>
@@ -24339,7 +24333,7 @@
         <v>279.42750000000001</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>687</v>
       </c>
@@ -24365,7 +24359,7 @@
         <v>3097.9760000000001</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>688</v>
       </c>
@@ -24391,7 +24385,7 @@
         <v>3097.9760000000001</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>689</v>
       </c>
@@ -24420,7 +24414,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>690</v>
       </c>
@@ -24446,7 +24440,7 @@
         <v>1400.91965</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>691</v>
       </c>
@@ -24472,7 +24466,7 @@
         <v>681.91599999999994</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>692</v>
       </c>
@@ -24498,7 +24492,7 @@
         <v>59.272500000000001</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>693</v>
       </c>
@@ -24524,7 +24518,7 @@
         <v>658.77150000000006</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>694</v>
       </c>
@@ -24550,7 +24544,7 @@
         <v>658.77150000000006</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>695</v>
       </c>
@@ -24576,7 +24570,7 @@
         <v>1507.6666</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>696</v>
       </c>
@@ -24605,7 +24599,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>697</v>
       </c>
@@ -24631,7 +24625,7 @@
         <v>88.908749999999998</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>698</v>
       </c>
@@ -24657,7 +24651,7 @@
         <v>970.60130000000004</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>699</v>
       </c>
@@ -24683,7 +24677,7 @@
         <v>970.60130000000004</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>700</v>
       </c>
@@ -24709,7 +24703,7 @@
         <v>1387.5409999999999</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>701</v>
       </c>
@@ -24735,7 +24729,7 @@
         <v>314.99099999999999</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>702</v>
       </c>
@@ -24761,7 +24755,7 @@
         <v>44.708399999999997</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>703</v>
       </c>
@@ -24787,7 +24781,7 @@
         <v>770.99409999999989</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>704</v>
       </c>
@@ -24813,7 +24807,7 @@
         <v>770.99409999999989</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>705</v>
       </c>
@@ -24842,7 +24836,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>706</v>
       </c>
@@ -24871,7 +24865,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>707</v>
       </c>
@@ -24897,7 +24891,7 @@
         <v>1449.636</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>708</v>
       </c>
@@ -24923,7 +24917,7 @@
         <v>73.159199999999998</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>709</v>
       </c>
@@ -24949,7 +24943,7 @@
         <v>733.17259999999999</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>710</v>
       </c>
@@ -24975,7 +24969,7 @@
         <v>733.17259999999999</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>711</v>
       </c>
@@ -25004,7 +24998,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>712</v>
       </c>
@@ -25030,7 +25024,7 @@
         <v>67.739999999999995</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>713</v>
       </c>
@@ -25056,7 +25050,7 @@
         <v>82.981499999999997</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>714</v>
       </c>
@@ -25082,7 +25076,7 @@
         <v>729.67269999999996</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>715</v>
       </c>
@@ -25108,7 +25102,7 @@
         <v>812.65419999999995</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>716</v>
       </c>
@@ -25134,7 +25128,7 @@
         <v>14157.739030000001</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>717</v>
       </c>
@@ -25160,7 +25154,7 @@
         <v>97.376249999999999</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>718</v>
       </c>
@@ -25186,7 +25180,7 @@
         <v>1032.4704999999999</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>719</v>
       </c>
@@ -25212,7 +25206,7 @@
         <v>1032.4704999999999</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>720</v>
       </c>
@@ -25238,7 +25232,7 @@
         <v>819.654</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>721</v>
       </c>
@@ -25264,7 +25258,7 @@
         <v>97.376249999999999</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>722</v>
       </c>
@@ -25290,7 +25284,7 @@
         <v>836.36319999999989</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>723</v>
       </c>
@@ -25316,7 +25310,7 @@
         <v>836.36319999999989</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>724</v>
       </c>
@@ -25342,7 +25336,7 @@
         <v>14399.299870000001</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>725</v>
       </c>
@@ -25368,7 +25362,7 @@
         <v>2829.2739999999999</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>726</v>
       </c>
@@ -25394,7 +25388,7 @@
         <v>105.84375</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>727</v>
       </c>
@@ -25420,7 +25414,7 @@
         <v>540.00070000000005</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>728</v>
       </c>
@@ -25446,7 +25440,7 @@
         <v>540.00070000000005</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>729</v>
       </c>
@@ -25475,7 +25469,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>730</v>
       </c>
@@ -25501,7 +25495,7 @@
         <v>21.168749999999999</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>731</v>
       </c>
@@ -25527,7 +25521,7 @@
         <v>1683.5873799999999</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>732</v>
       </c>
@@ -25553,7 +25547,7 @@
         <v>16.2576</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>733</v>
       </c>
@@ -25579,7 +25573,7 @@
         <v>100.8197</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>734</v>
       </c>
@@ -25605,7 +25599,7 @@
         <v>100.8197</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>735</v>
       </c>
@@ -25631,7 +25625,7 @@
         <v>105.84375</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>736</v>
       </c>
@@ -25657,7 +25651,7 @@
         <v>9767.0693200000005</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>737</v>
       </c>
@@ -25683,7 +25677,7 @@
         <v>1470.46605</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>738</v>
       </c>
@@ -25709,7 +25703,7 @@
         <v>388.82760000000002</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>739</v>
       </c>
@@ -25735,7 +25729,7 @@
         <v>388.82760000000002</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>740</v>
       </c>
@@ -25761,7 +25755,7 @@
         <v>6907.6961800000008</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>741</v>
       </c>
@@ -25787,7 +25781,7 @@
         <v>844.49199999999996</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>742</v>
       </c>
@@ -25813,7 +25807,7 @@
         <v>93.142499999999998</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>743</v>
       </c>
@@ -25839,7 +25833,7 @@
         <v>446.97109999999998</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>744</v>
       </c>
@@ -25865,7 +25859,7 @@
         <v>444.93889999999999</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>745</v>
       </c>
@@ -25891,7 +25885,7 @@
         <v>15762.21738</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>746</v>
       </c>
@@ -25917,7 +25911,7 @@
         <v>3970.1284999999998</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>747</v>
       </c>
@@ -25943,7 +25937,7 @@
         <v>139.71375</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>748</v>
       </c>
@@ -25969,7 +25963,7 @@
         <v>667.91640000000007</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>749</v>
       </c>
@@ -25995,7 +25989,7 @@
         <v>667.91640000000007</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>750</v>
       </c>
@@ -26021,7 +26015,7 @@
         <v>11351.32728</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>751</v>
       </c>
@@ -26047,7 +26041,7 @@
         <v>1485.1994999999999</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>752</v>
       </c>
@@ -26073,7 +26067,7 @@
         <v>2688.7134999999998</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>753</v>
       </c>
@@ -26099,7 +26093,7 @@
         <v>93.142499999999998</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>754</v>
       </c>
@@ -26125,7 +26119,7 @@
         <v>536.83949999999993</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>755</v>
       </c>
@@ -26151,7 +26145,7 @@
         <v>536.83949999999993</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>756</v>
       </c>
@@ -26177,7 +26171,7 @@
         <v>21865.82847</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>757</v>
       </c>
@@ -26203,7 +26197,7 @@
         <v>4125.366</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>758</v>
       </c>
@@ -26229,7 +26223,7 @@
         <v>127.0125</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>759</v>
       </c>
@@ -26255,7 +26249,7 @@
         <v>447.42270000000002</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>760</v>
       </c>
@@ -26281,7 +26275,7 @@
         <v>447.42270000000002</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>761</v>
       </c>
@@ -26307,7 +26301,7 @@
         <v>3139.1280499999998</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>762</v>
       </c>
@@ -26333,7 +26327,7 @@
         <v>767.8329</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>763</v>
       </c>
@@ -26359,7 +26353,7 @@
         <v>205.8167</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>764</v>
       </c>
@@ -26385,7 +26379,7 @@
         <v>826.428</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>765</v>
       </c>
@@ -26414,7 +26408,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>766</v>
       </c>
@@ -26440,7 +26434,7 @@
         <v>25.4025</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>767</v>
       </c>
@@ -26466,7 +26460,7 @@
         <v>247.92840000000001</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>768</v>
       </c>
@@ -26492,7 +26486,7 @@
         <v>247.92840000000001</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>769</v>
       </c>
@@ -26521,7 +26515,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>770</v>
       </c>
@@ -26547,7 +26541,7 @@
         <v>900.6033000000001</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>771</v>
       </c>
@@ -26573,7 +26567,7 @@
         <v>223.42910000000001</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>772</v>
       </c>
@@ -26599,7 +26593,7 @@
         <v>1252.0609999999999</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>773</v>
       </c>
@@ -26625,7 +26619,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>774</v>
       </c>
@@ -26651,7 +26645,7 @@
         <v>353.82859999999988</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>775</v>
       </c>
@@ -26677,7 +26671,7 @@
         <v>353.82859999999988</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>776</v>
       </c>
@@ -26703,7 +26697,7 @@
         <v>1325.84115</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>777</v>
       </c>
@@ -26729,7 +26723,7 @@
         <v>223.42910000000001</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>778</v>
       </c>
@@ -26755,7 +26749,7 @@
         <v>1775.3525</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>779</v>
       </c>
@@ -26784,7 +26778,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>780</v>
       </c>
@@ -26810,7 +26804,7 @@
         <v>55.03875</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>781</v>
       </c>
@@ -26836,7 +26830,7 @@
         <v>417.39129999999989</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>782</v>
       </c>
@@ -26862,7 +26856,7 @@
         <v>417.39129999999989</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>783</v>
       </c>
@@ -26888,7 +26882,7 @@
         <v>13531.27951</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>784</v>
       </c>
@@ -26914,7 +26908,7 @@
         <v>2374.2869999999998</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>785</v>
       </c>
@@ -26940,7 +26934,7 @@
         <v>97.376249999999999</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>786</v>
       </c>
@@ -26966,7 +26960,7 @@
         <v>718.8343000000001</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>787</v>
       </c>
@@ -26992,7 +26986,7 @@
         <v>718.8343000000001</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>788</v>
       </c>
@@ -27021,7 +27015,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>789</v>
       </c>
@@ -27047,7 +27041,7 @@
         <v>503.64690000000002</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>790</v>
       </c>
@@ -27073,7 +27067,7 @@
         <v>98.843950000000007</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>791</v>
       </c>
@@ -27099,7 +27093,7 @@
         <v>656.51350000000002</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>792</v>
       </c>
@@ -27125,7 +27119,7 @@
         <v>21.168749999999999</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>793</v>
       </c>
@@ -27151,7 +27145,7 @@
         <v>175.1079</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>794</v>
       </c>
@@ -27177,7 +27171,7 @@
         <v>175.44659999999999</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>795</v>
       </c>
@@ -27206,7 +27200,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>796</v>
       </c>
@@ -27232,7 +27226,7 @@
         <v>625.52244999999994</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>797</v>
       </c>
@@ -27258,7 +27252,7 @@
         <v>335.65170000000001</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>798</v>
       </c>
@@ -27284,7 +27278,7 @@
         <v>913.3610000000001</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>799</v>
       </c>
@@ -27310,7 +27304,7 @@
         <v>25.4025</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>800</v>
       </c>
@@ -27336,7 +27330,7 @@
         <v>196.22020000000001</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>801</v>
       </c>
@@ -27362,7 +27356,7 @@
         <v>196.22020000000001</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>802</v>
       </c>
@@ -27391,7 +27385,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>803</v>
       </c>
@@ -27417,7 +27411,7 @@
         <v>38.103750000000012</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>804</v>
       </c>
@@ -27443,7 +27437,7 @@
         <v>117.07729999999999</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>805</v>
       </c>
@@ -27469,7 +27463,7 @@
         <v>117.07729999999999</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>806</v>
       </c>
@@ -27498,7 +27492,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>807</v>
       </c>
@@ -27524,7 +27518,7 @@
         <v>619.08714999999995</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>808</v>
       </c>
@@ -27550,7 +27544,7 @@
         <v>738.36599999999999</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>809</v>
       </c>
@@ -27576,7 +27570,7 @@
         <v>33.869999999999997</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>810</v>
       </c>
@@ -27602,7 +27596,7 @@
         <v>278.63720000000001</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>811</v>
       </c>
@@ -27628,7 +27622,7 @@
         <v>278.63720000000001</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>812</v>
       </c>
@@ -27657,7 +27651,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>813</v>
       </c>
@@ -27683,7 +27677,7 @@
         <v>55.095199999999998</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>814</v>
       </c>
@@ -27709,7 +27703,7 @@
         <v>531.75900000000001</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>815</v>
       </c>
@@ -27735,7 +27729,7 @@
         <v>16.934999999999999</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>816</v>
       </c>
@@ -27761,7 +27755,7 @@
         <v>55.095199999999998</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>817</v>
       </c>
@@ -27787,7 +27781,7 @@
         <v>608.53100000000006</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>818</v>
       </c>
@@ -27813,7 +27807,7 @@
         <v>3729.5385999999999</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>819</v>
       </c>
@@ -27839,7 +27833,7 @@
         <v>46.571249999999999</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>820</v>
       </c>
@@ -27865,7 +27859,7 @@
         <v>206.26830000000001</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>821</v>
       </c>
@@ -27891,7 +27885,7 @@
         <v>206.26830000000001</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>822</v>
       </c>
@@ -27914,7 +27908,7 @@
         <v>628.55946000000006</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>823</v>
       </c>
@@ -27940,7 +27934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>824</v>
       </c>
@@ -27963,7 +27957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>825</v>
       </c>
@@ -27989,7 +27983,7 @@
         <v>4717.8087500000001</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>826</v>
       </c>
@@ -28015,7 +28009,7 @@
         <v>11259.25733</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>827</v>
       </c>
@@ -28041,7 +28035,7 @@
         <v>9620.9315599999991</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>828</v>
       </c>
@@ -28067,7 +28061,7 @@
         <v>14104.43894</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>829</v>
       </c>
@@ -28093,7 +28087,7 @@
         <v>5209.2060000000001</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>830</v>
       </c>
@@ -28119,7 +28113,7 @@
         <v>7290.4610499999999</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>831</v>
       </c>
@@ -28145,7 +28139,7 @@
         <v>1833.0444</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>832</v>
       </c>
@@ -28171,7 +28165,7 @@
         <v>2735.0589500000001</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>833</v>
       </c>
@@ -28197,7 +28191,7 @@
         <v>0.5645</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>834</v>
       </c>
@@ -28220,7 +28214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>835</v>
       </c>
@@ -28243,7 +28237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>836</v>
       </c>
@@ -28266,7 +28260,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>837</v>
       </c>
@@ -28289,7 +28283,7 @@
         <v>28.225000000000001</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>838</v>
       </c>
@@ -28315,7 +28309,7 @@
         <v>319.71021999999999</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>839</v>
       </c>
@@ -28341,7 +28335,7 @@
         <v>112.87742</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>840</v>
       </c>
@@ -28367,7 +28361,7 @@
         <v>151.72631000000001</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>841</v>
       </c>
@@ -28393,7 +28387,7 @@
         <v>237.38354000000001</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>842</v>
       </c>
@@ -28416,7 +28410,7 @@
         <v>152.69725</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>843</v>
       </c>
@@ -28442,7 +28436,7 @@
         <v>148.66672</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>844</v>
       </c>
@@ -28468,7 +28462,7 @@
         <v>174.81435999999999</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>845</v>
       </c>
@@ -28494,7 +28488,7 @@
         <v>0.7903</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>846</v>
       </c>
@@ -28520,7 +28514,7 @@
         <v>0.5645</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>847</v>
       </c>
@@ -28546,7 +28540,7 @@
         <v>0.95964999999999989</v>
       </c>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>848</v>
       </c>
@@ -28572,7 +28566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>849</v>
       </c>
@@ -28595,7 +28589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>850</v>
       </c>
@@ -28618,7 +28612,7 @@
         <v>0.67739999999999989</v>
       </c>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>851</v>
       </c>
@@ -28641,7 +28635,7 @@
         <v>1.129</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>852</v>
       </c>
@@ -28664,7 +28658,7 @@
         <v>0.9032</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>853</v>
       </c>
@@ -28690,7 +28684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>854</v>
       </c>
@@ -28713,7 +28707,7 @@
         <v>5.645E-2</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>855</v>
       </c>
@@ -28736,7 +28730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>856</v>
       </c>
@@ -28762,7 +28756,7 @@
         <v>27.547599999999999</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>857</v>
       </c>
@@ -28788,7 +28782,7 @@
         <v>15.52375</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>858</v>
       </c>
@@ -28814,7 +28808,7 @@
         <v>25.1767</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>859</v>
       </c>
@@ -28840,7 +28834,7 @@
         <v>21.620349999999991</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>860</v>
       </c>
@@ -28866,7 +28860,7 @@
         <v>20.660699999999999</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>861</v>
       </c>
@@ -28892,7 +28886,7 @@
         <v>27.547599999999999</v>
       </c>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>862</v>
       </c>
@@ -28918,7 +28912,7 @@
         <v>27.547599999999999</v>
       </c>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>863</v>
       </c>
@@ -28944,7 +28938,7 @@
         <v>55.26455</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>864</v>
       </c>
@@ -28970,7 +28964,7 @@
         <v>55.26455</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>865</v>
       </c>
@@ -28993,7 +28987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>866</v>
       </c>
@@ -29019,7 +29013,7 @@
         <v>55.26455</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>867</v>
       </c>
@@ -29045,7 +29039,7 @@
         <v>55.26455</v>
       </c>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>868</v>
       </c>
@@ -29068,7 +29062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>869</v>
       </c>
@@ -29091,7 +29085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>870</v>
       </c>
@@ -29117,7 +29111,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>871</v>
       </c>
@@ -29143,7 +29137,7 @@
         <v>27.547599999999999</v>
       </c>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>872</v>
       </c>
@@ -29169,7 +29163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>873</v>
       </c>
@@ -29195,7 +29189,7 @@
         <v>50.805</v>
       </c>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>874</v>
       </c>
@@ -29221,7 +29215,7 @@
         <v>35.50705</v>
       </c>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>875</v>
       </c>
@@ -29247,7 +29241,7 @@
         <v>50.805</v>
       </c>
     </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>876</v>
       </c>
@@ -29273,7 +29267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>877</v>
       </c>
@@ -29299,7 +29293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>878</v>
       </c>
@@ -29325,7 +29319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>879</v>
       </c>
@@ -29348,7 +29342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>880</v>
       </c>
@@ -29371,7 +29365,7 @@
         <v>46.063199999999988</v>
       </c>
     </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>881</v>
       </c>
@@ -29394,7 +29388,7 @@
         <v>44.934199999999997</v>
       </c>
     </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>882</v>
       </c>
@@ -29417,7 +29411,7 @@
         <v>61.248249999999999</v>
       </c>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>883</v>
       </c>
@@ -29440,7 +29434,7 @@
         <v>7212.9777800000002</v>
       </c>
     </row>
-    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>884</v>
       </c>
@@ -29463,7 +29457,7 @@
         <v>24.047699999999999</v>
       </c>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>885</v>
       </c>
@@ -29486,7 +29480,7 @@
         <v>16.934999999999999</v>
       </c>
     </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>886</v>
       </c>
@@ -29509,7 +29503,7 @@
         <v>17.273700000000002</v>
       </c>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>887</v>
       </c>
@@ -29532,7 +29526,7 @@
         <v>19.362349999999999</v>
       </c>
     </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>888</v>
       </c>
@@ -29558,7 +29552,7 @@
         <v>26.587949999999999</v>
       </c>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>889</v>
       </c>
@@ -29584,7 +29578,7 @@
         <v>26.587949999999999</v>
       </c>
     </row>
-    <row r="884" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>890</v>
       </c>
@@ -29610,7 +29604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>891</v>
       </c>
@@ -29633,7 +29627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
         <v>892</v>
       </c>
@@ -29656,7 +29650,7 @@
         <v>0.1129</v>
       </c>
     </row>
-    <row r="887" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>893</v>
       </c>
@@ -29679,7 +29673,7 @@
         <v>0.1129</v>
       </c>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>894</v>
       </c>
@@ -29702,7 +29696,7 @@
         <v>0.28225</v>
       </c>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>895</v>
       </c>
@@ -29725,7 +29719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>896</v>
       </c>
@@ -29751,7 +29745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>897</v>
       </c>
@@ -29777,7 +29771,7 @@
         <v>1.4677</v>
       </c>
     </row>
-    <row r="892" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>898</v>
       </c>
@@ -29803,7 +29797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>899</v>
       </c>
@@ -29829,7 +29823,7 @@
         <v>2.0886499999999999</v>
       </c>
     </row>
-    <row r="894" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>900</v>
       </c>
@@ -29855,7 +29849,7 @@
         <v>2.4838</v>
       </c>
     </row>
-    <row r="895" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>901</v>
       </c>
@@ -29881,7 +29875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>902</v>
       </c>
@@ -29907,7 +29901,7 @@
         <v>2.258</v>
       </c>
     </row>
-    <row r="897" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>903</v>
       </c>
@@ -29933,7 +29927,7 @@
         <v>2.8789500000000001</v>
       </c>
     </row>
-    <row r="898" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>904</v>
       </c>
@@ -29959,7 +29953,7 @@
         <v>4.516</v>
       </c>
     </row>
-    <row r="899" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>905</v>
       </c>
@@ -29985,7 +29979,7 @@
         <v>3.7629570000000001</v>
       </c>
     </row>
-    <row r="900" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>906</v>
       </c>
@@ -30011,7 +30005,7 @@
         <v>5.9611200000000002</v>
       </c>
     </row>
-    <row r="901" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>907</v>
       </c>
@@ -30034,7 +30028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>908</v>
       </c>
@@ -30060,7 +30054,7 @@
         <v>3.6590889999999998</v>
       </c>
     </row>
-    <row r="903" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>909</v>
       </c>
@@ -30083,7 +30077,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="904" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>910</v>
       </c>
@@ -30106,7 +30100,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="905" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>911</v>
       </c>
@@ -30129,7 +30123,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="906" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>912</v>
       </c>
@@ -30152,7 +30146,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="907" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>913</v>
       </c>
@@ -30175,7 +30169,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="908" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>914</v>
       </c>
@@ -30198,7 +30192,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="909" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>915</v>
       </c>
@@ -30221,7 +30215,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="910" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>916</v>
       </c>
@@ -30244,7 +30238,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="911" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>917</v>
       </c>
@@ -30267,7 +30261,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="912" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>918</v>
       </c>
@@ -30290,7 +30284,7 @@
         <v>4.2337499999999997</v>
       </c>
     </row>
-    <row r="913" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>919</v>
       </c>
@@ -30313,7 +30307,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="914" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
         <v>920</v>
       </c>
@@ -30336,7 +30330,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="915" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
         <v>921</v>
       </c>
@@ -30359,7 +30353,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="916" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>922</v>
       </c>
@@ -30382,7 +30376,7 @@
         <v>3.0482999999999998</v>
       </c>
     </row>
-    <row r="917" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
         <v>923</v>
       </c>
@@ -30405,7 +30399,7 @@
         <v>5.6449999999999996</v>
       </c>
     </row>
-    <row r="918" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>924</v>
       </c>
@@ -30428,7 +30422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
         <v>925</v>
       </c>
@@ -30451,7 +30445,7 @@
         <v>6.774</v>
       </c>
     </row>
-    <row r="920" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
         <v>926</v>
       </c>
@@ -30474,7 +30468,7 @@
         <v>6.774</v>
       </c>
     </row>
-    <row r="921" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>927</v>
       </c>
@@ -30500,7 +30494,7 @@
         <v>3.387</v>
       </c>
     </row>
-    <row r="922" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
         <v>928</v>
       </c>
@@ -30526,7 +30520,7 @@
         <v>8.4110499999999995</v>
       </c>
     </row>
-    <row r="923" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
         <v>929</v>
       </c>
@@ -30552,7 +30546,7 @@
         <v>5.5321000000000007</v>
       </c>
     </row>
-    <row r="924" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>930</v>
       </c>
@@ -30578,7 +30572,7 @@
         <v>8.2416999999999998</v>
       </c>
     </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
         <v>931</v>
       </c>
@@ -30604,7 +30598,7 @@
         <v>9.032</v>
       </c>
     </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>932</v>
       </c>
@@ -30630,7 +30624,7 @@
         <v>5.475649999999999</v>
       </c>
     </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
         <v>933</v>
       </c>
@@ -30656,7 +30650,7 @@
         <v>8.3545999999999996</v>
       </c>
     </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
         <v>934</v>
       </c>
@@ -30679,7 +30673,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
         <v>935</v>
       </c>
@@ -30702,7 +30696,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
         <v>936</v>
       </c>
@@ -30725,7 +30719,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="931" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
         <v>937</v>
       </c>
@@ -30748,7 +30742,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="932" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
         <v>938</v>
       </c>
@@ -30771,7 +30765,7 @@
         <v>20.321999999999999</v>
       </c>
     </row>
-    <row r="933" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
         <v>939</v>
       </c>
@@ -30794,7 +30788,7 @@
         <v>4.0644</v>
       </c>
     </row>
-    <row r="934" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
         <v>940</v>
       </c>
@@ -30817,7 +30811,7 @@
         <v>20.321999999999999</v>
       </c>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
         <v>941</v>
       </c>
@@ -30843,7 +30837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
         <v>942</v>
       </c>
@@ -30869,7 +30863,7 @@
         <v>37.302160000000001</v>
       </c>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
         <v>943</v>
       </c>
@@ -30895,7 +30889,7 @@
         <v>62.094999999999999</v>
       </c>
     </row>
-    <row r="938" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
         <v>944</v>
       </c>
@@ -30921,7 +30915,7 @@
         <v>60.288600000000002</v>
       </c>
     </row>
-    <row r="939" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
         <v>945</v>
       </c>
@@ -30947,7 +30941,7 @@
         <v>89.360350000000011</v>
       </c>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
         <v>946</v>
       </c>
@@ -30973,7 +30967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
         <v>947</v>
       </c>
@@ -30999,7 +30993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
         <v>948</v>
       </c>
@@ -31025,7 +31019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
         <v>949</v>
       </c>
@@ -31051,7 +31045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
         <v>950</v>
       </c>
@@ -31077,7 +31071,7 @@
         <v>38.386000000000003</v>
       </c>
     </row>
-    <row r="945" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
         <v>951</v>
       </c>
@@ -31103,7 +31097,7 @@
         <v>47.700249999999997</v>
       </c>
     </row>
-    <row r="946" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
         <v>952</v>
       </c>
@@ -31129,7 +31123,7 @@
         <v>36.918300000000002</v>
       </c>
     </row>
-    <row r="947" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
         <v>953</v>
       </c>
@@ -31155,7 +31149,7 @@
         <v>49.450200000000002</v>
       </c>
     </row>
-    <row r="948" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A948" t="s">
         <v>954</v>
       </c>
@@ -31178,7 +31172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A949" t="s">
         <v>955</v>
       </c>
@@ -31204,7 +31198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A950" t="s">
         <v>956</v>
       </c>
